--- a/database/industries/zeraat/zegoldasht/cost/quarterly.xlsx
+++ b/database/industries/zeraat/zegoldasht/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C6A8E6-7D73-4C20-B5C6-EAF7E3968AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B7711-49AF-4F73-911A-475AB23EFC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="99">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -776,12 +776,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -796,7 +796,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -845,7 +845,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -862,7 +862,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -894,7 +894,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -931,7 +931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -946,155 +946,155 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>283722</v>
+        <v>391615</v>
       </c>
       <c r="F10" s="9">
-        <v>391615</v>
+        <v>497999</v>
       </c>
       <c r="G10" s="9">
-        <v>497999</v>
+        <v>576400</v>
       </c>
       <c r="H10" s="9">
-        <v>576400</v>
-      </c>
-      <c r="I10" s="9">
         <v>628986</v>
       </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="9" t="s">
-        <v>15</v>
+      <c r="K10" s="9">
+        <v>1084261</v>
       </c>
       <c r="L10" s="9">
-        <v>1084261</v>
+        <v>1480628</v>
       </c>
       <c r="M10" s="9">
-        <v>1480628</v>
+        <v>1570115</v>
       </c>
       <c r="N10" s="9">
-        <v>1570115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1959560</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>26685</v>
+        <v>31036</v>
       </c>
       <c r="F11" s="11">
-        <v>31036</v>
+        <v>40164</v>
       </c>
       <c r="G11" s="11">
-        <v>40164</v>
+        <v>55160</v>
       </c>
       <c r="H11" s="11">
-        <v>55160</v>
-      </c>
-      <c r="I11" s="11">
         <v>50451</v>
       </c>
+      <c r="I11" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>15</v>
+      <c r="K11" s="11">
+        <v>105459</v>
       </c>
       <c r="L11" s="11">
-        <v>105459</v>
+        <v>112887</v>
       </c>
       <c r="M11" s="11">
-        <v>112887</v>
+        <v>59519</v>
       </c>
       <c r="N11" s="11">
-        <v>59519</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>175353</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>47427</v>
+        <v>61613</v>
       </c>
       <c r="F12" s="9">
-        <v>61613</v>
+        <v>87514</v>
       </c>
       <c r="G12" s="9">
-        <v>87514</v>
+        <v>86665</v>
       </c>
       <c r="H12" s="9">
-        <v>86665</v>
-      </c>
-      <c r="I12" s="9">
         <v>81835</v>
       </c>
+      <c r="I12" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>15</v>
+      <c r="K12" s="9">
+        <v>145829</v>
       </c>
       <c r="L12" s="9">
-        <v>145829</v>
+        <v>217045</v>
       </c>
       <c r="M12" s="9">
-        <v>217045</v>
+        <v>249199</v>
       </c>
       <c r="N12" s="9">
-        <v>249199</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>246205</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>357834</v>
+        <v>484264</v>
       </c>
       <c r="F13" s="13">
-        <v>484264</v>
+        <v>625677</v>
       </c>
       <c r="G13" s="13">
-        <v>625677</v>
+        <v>718225</v>
       </c>
       <c r="H13" s="13">
-        <v>718225</v>
-      </c>
-      <c r="I13" s="13">
         <v>761272</v>
       </c>
+      <c r="I13" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="13" t="s">
-        <v>15</v>
+      <c r="K13" s="13">
+        <v>1335549</v>
       </c>
       <c r="L13" s="13">
-        <v>1335549</v>
+        <v>1810560</v>
       </c>
       <c r="M13" s="13">
-        <v>1810560</v>
+        <v>1878833</v>
       </c>
       <c r="N13" s="13">
-        <v>1878833</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2381118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>19</v>
       </c>
@@ -1112,14 +1112,14 @@
       <c r="H14" s="9">
         <v>0</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="9">
         <v>0</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
@@ -1149,14 +1149,14 @@
       <c r="H15" s="11">
         <v>0</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="11">
         <v>0</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="L15" s="11">
         <v>0</v>
@@ -1168,32 +1168,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-45589</v>
+        <v>-65708</v>
       </c>
       <c r="F16" s="9">
-        <v>-65708</v>
+        <v>175678</v>
       </c>
       <c r="G16" s="9">
-        <v>175678</v>
+        <v>-142771</v>
       </c>
       <c r="H16" s="9">
-        <v>-142771</v>
-      </c>
-      <c r="I16" s="9">
         <v>-126467</v>
       </c>
+      <c r="I16" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>15</v>
+      <c r="K16" s="9">
+        <v>0</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -1214,12 +1214,12 @@
       <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="F17" s="11">
         <v>-309319</v>
       </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H17" s="11" t="s">
         <v>15</v>
       </c>
@@ -1229,168 +1229,168 @@
       <c r="J17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="11" t="s">
-        <v>15</v>
+      <c r="K17" s="11">
+        <v>-239462</v>
       </c>
       <c r="L17" s="11">
-        <v>-239462</v>
+        <v>-415289</v>
       </c>
       <c r="M17" s="11">
-        <v>-415289</v>
+        <v>-311151</v>
       </c>
       <c r="N17" s="11">
-        <v>-311151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-501230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>312245</v>
+        <v>418556</v>
       </c>
       <c r="F18" s="15">
-        <v>418556</v>
+        <v>492036</v>
       </c>
       <c r="G18" s="15">
-        <v>492036</v>
+        <v>575454</v>
       </c>
       <c r="H18" s="15">
-        <v>575454</v>
-      </c>
-      <c r="I18" s="15">
         <v>634805</v>
       </c>
+      <c r="I18" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="J18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="15" t="s">
-        <v>15</v>
+      <c r="K18" s="15">
+        <v>1096087</v>
       </c>
       <c r="L18" s="15">
-        <v>1096087</v>
+        <v>1395271</v>
       </c>
       <c r="M18" s="15">
-        <v>1395271</v>
+        <v>1567682</v>
       </c>
       <c r="N18" s="15">
-        <v>1567682</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1879888</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>-40129</v>
+      </c>
+      <c r="G19" s="11">
+        <v>56713</v>
+      </c>
+      <c r="H19" s="11">
         <v>0</v>
       </c>
-      <c r="G19" s="11">
-        <v>-40129</v>
-      </c>
-      <c r="H19" s="11">
-        <v>56713</v>
-      </c>
-      <c r="I19" s="11">
-        <v>0</v>
+      <c r="I19" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K19" s="11">
-        <v>10925</v>
+        <v>15761</v>
       </c>
       <c r="L19" s="11">
-        <v>15761</v>
+        <v>29050</v>
       </c>
       <c r="M19" s="11">
-        <v>29050</v>
+        <v>39833</v>
       </c>
       <c r="N19" s="11">
-        <v>39833</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36855</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-30385</v>
+        <v>-21957</v>
       </c>
       <c r="F20" s="9">
-        <v>-21957</v>
+        <v>77388</v>
       </c>
       <c r="G20" s="9">
-        <v>77388</v>
+        <v>-36143</v>
       </c>
       <c r="H20" s="9">
-        <v>-36143</v>
-      </c>
-      <c r="I20" s="9">
         <v>-16341</v>
       </c>
-      <c r="J20" s="9" t="s">
-        <v>15</v>
+      <c r="I20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="9">
+        <v>-15761</v>
       </c>
       <c r="K20" s="9">
-        <v>-15761</v>
+        <v>-29050</v>
       </c>
       <c r="L20" s="9">
-        <v>-29050</v>
+        <v>-39833</v>
       </c>
       <c r="M20" s="9">
-        <v>-39833</v>
+        <v>-36855</v>
       </c>
       <c r="N20" s="9">
-        <v>-36855</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-45474</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>281861</v>
+        <v>396599</v>
       </c>
       <c r="F21" s="13">
-        <v>396599</v>
+        <v>529295</v>
       </c>
       <c r="G21" s="13">
-        <v>529295</v>
+        <v>596024</v>
       </c>
       <c r="H21" s="13">
-        <v>596024</v>
-      </c>
-      <c r="I21" s="13">
         <v>618464</v>
       </c>
+      <c r="I21" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="J21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>15</v>
+      <c r="K21" s="13">
+        <v>1082798</v>
       </c>
       <c r="L21" s="13">
-        <v>1082798</v>
+        <v>1384488</v>
       </c>
       <c r="M21" s="13">
-        <v>1384488</v>
+        <v>1570660</v>
       </c>
       <c r="N21" s="13">
-        <v>1570660</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1871269</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1405,7 +1405,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1420,7 +1420,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1435,7 +1435,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1487,7 +1487,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>28</v>
       </c>
@@ -1496,37 +1496,37 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>119240</v>
+        <v>89000</v>
       </c>
       <c r="F27" s="9">
-        <v>89000</v>
+        <v>47221</v>
       </c>
       <c r="G27" s="9">
-        <v>47221</v>
+        <v>124000</v>
       </c>
       <c r="H27" s="9">
-        <v>124000</v>
-      </c>
-      <c r="I27" s="9">
         <v>18217</v>
       </c>
-      <c r="J27" s="9" t="s">
-        <v>15</v>
+      <c r="I27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="9">
+        <v>19481</v>
       </c>
       <c r="K27" s="9">
-        <v>19481</v>
+        <v>69000</v>
       </c>
       <c r="L27" s="9">
-        <v>69000</v>
+        <v>62000</v>
       </c>
       <c r="M27" s="9">
-        <v>62000</v>
+        <v>14</v>
       </c>
       <c r="N27" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>30</v>
       </c>
@@ -1540,32 +1540,32 @@
       <c r="F28" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>15</v>
+      <c r="G28" s="11">
+        <v>134000</v>
       </c>
       <c r="H28" s="11">
-        <v>134000</v>
-      </c>
-      <c r="I28" s="11">
         <v>38037</v>
       </c>
-      <c r="J28" s="11" t="s">
-        <v>15</v>
+      <c r="I28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="11">
+        <v>36894</v>
       </c>
       <c r="K28" s="11">
-        <v>36894</v>
+        <v>96000</v>
       </c>
       <c r="L28" s="11">
-        <v>96000</v>
+        <v>39000</v>
       </c>
       <c r="M28" s="11">
-        <v>39000</v>
+        <v>21</v>
       </c>
       <c r="N28" s="11">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>99584</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>31</v>
       </c>
@@ -1579,32 +1579,32 @@
       <c r="F29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>15</v>
+      <c r="G29" s="9">
+        <v>21000</v>
       </c>
       <c r="H29" s="9">
-        <v>21000</v>
-      </c>
-      <c r="I29" s="9">
         <v>5080</v>
       </c>
-      <c r="J29" s="9" t="s">
-        <v>15</v>
+      <c r="I29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="9">
+        <v>9024</v>
       </c>
       <c r="K29" s="9">
-        <v>9024</v>
+        <v>45000</v>
       </c>
       <c r="L29" s="9">
-        <v>45000</v>
+        <v>23000</v>
       </c>
       <c r="M29" s="9">
-        <v>23000</v>
+        <v>24</v>
       </c>
       <c r="N29" s="9">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>63719</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1613,37 +1613,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>1205948</v>
+        <v>2779000</v>
       </c>
       <c r="F30" s="11">
-        <v>2779000</v>
+        <v>1658674</v>
       </c>
       <c r="G30" s="11">
-        <v>1658674</v>
+        <v>920000</v>
       </c>
       <c r="H30" s="11">
-        <v>920000</v>
-      </c>
-      <c r="I30" s="11">
         <v>2418153</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>15</v>
+      <c r="I30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="11">
+        <v>4094803</v>
       </c>
       <c r="K30" s="11">
-        <v>4094803</v>
+        <v>2376000</v>
       </c>
       <c r="L30" s="11">
-        <v>2376000</v>
+        <v>3558000</v>
       </c>
       <c r="M30" s="11">
-        <v>3558000</v>
+        <v>5648</v>
       </c>
       <c r="N30" s="11">
-        <v>5648</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4411554</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1652,37 +1652,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>6412853</v>
+        <v>23647000</v>
       </c>
       <c r="F31" s="9">
-        <v>23647000</v>
+        <v>19394675</v>
       </c>
       <c r="G31" s="9">
-        <v>19394675</v>
+        <v>17270000</v>
       </c>
       <c r="H31" s="9">
-        <v>17270000</v>
-      </c>
-      <c r="I31" s="9">
         <v>17337425</v>
       </c>
+      <c r="I31" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="9" t="s">
-        <v>15</v>
+      <c r="K31" s="9">
+        <v>24901000</v>
       </c>
       <c r="L31" s="9">
-        <v>24901000</v>
+        <v>17329000</v>
       </c>
       <c r="M31" s="9">
-        <v>17329000</v>
+        <v>20828</v>
       </c>
       <c r="N31" s="9">
-        <v>20828</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39286019</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1691,37 +1691,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>175543</v>
+        <v>770000</v>
       </c>
       <c r="F32" s="11">
-        <v>770000</v>
+        <v>1300006</v>
       </c>
       <c r="G32" s="11">
-        <v>1300006</v>
+        <v>1018000</v>
       </c>
       <c r="H32" s="11">
-        <v>1018000</v>
-      </c>
-      <c r="I32" s="11">
         <v>797349</v>
       </c>
-      <c r="J32" s="11" t="s">
-        <v>15</v>
+      <c r="I32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="11">
+        <v>651101</v>
       </c>
       <c r="K32" s="11">
-        <v>651101</v>
+        <v>420000</v>
       </c>
       <c r="L32" s="11">
-        <v>420000</v>
+        <v>511000</v>
       </c>
       <c r="M32" s="11">
-        <v>511000</v>
+        <v>363</v>
       </c>
       <c r="N32" s="11">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1154656</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1730,37 +1730,37 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
-        <v>1858573</v>
+        <v>75000</v>
       </c>
       <c r="F33" s="9">
-        <v>75000</v>
+        <v>2924573</v>
       </c>
       <c r="G33" s="9">
-        <v>2924573</v>
+        <v>1048000</v>
       </c>
       <c r="H33" s="9">
-        <v>1048000</v>
-      </c>
-      <c r="I33" s="9">
         <v>475327</v>
       </c>
-      <c r="J33" s="9" t="s">
-        <v>15</v>
+      <c r="I33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="9">
+        <v>470911</v>
       </c>
       <c r="K33" s="9">
-        <v>470911</v>
+        <v>1011000</v>
       </c>
       <c r="L33" s="9">
-        <v>1011000</v>
+        <v>3653918</v>
       </c>
       <c r="M33" s="9">
-        <v>3653918</v>
+        <v>140</v>
       </c>
       <c r="N33" s="9">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>549796</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1774,32 +1774,32 @@
       <c r="F34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="11" t="s">
-        <v>15</v>
+      <c r="G34" s="11">
+        <v>785000</v>
       </c>
       <c r="H34" s="11">
-        <v>785000</v>
-      </c>
-      <c r="I34" s="11">
         <v>405089</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>15</v>
+      <c r="I34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="11">
+        <v>28857</v>
       </c>
       <c r="K34" s="11">
-        <v>28857</v>
+        <v>170000</v>
       </c>
       <c r="L34" s="11">
-        <v>170000</v>
+        <v>284000</v>
       </c>
       <c r="M34" s="11">
-        <v>284000</v>
+        <v>79</v>
       </c>
       <c r="N34" s="11">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>332080</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1808,37 +1808,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>253205</v>
+        <v>69000</v>
       </c>
       <c r="F35" s="9">
-        <v>69000</v>
+        <v>45131</v>
       </c>
       <c r="G35" s="9">
-        <v>45131</v>
+        <v>402000</v>
       </c>
       <c r="H35" s="9">
-        <v>402000</v>
-      </c>
-      <c r="I35" s="9">
         <v>317792</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>15</v>
+      <c r="I35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="9">
+        <v>305964</v>
       </c>
       <c r="K35" s="9">
-        <v>305964</v>
+        <v>617000</v>
       </c>
       <c r="L35" s="9">
-        <v>617000</v>
+        <v>117000</v>
       </c>
       <c r="M35" s="9">
-        <v>117000</v>
+        <v>163</v>
       </c>
       <c r="N35" s="9">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119570</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>38</v>
       </c>
@@ -1847,37 +1847,37 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>133664</v>
+        <v>263000</v>
       </c>
       <c r="F36" s="11">
-        <v>263000</v>
+        <v>55333</v>
       </c>
       <c r="G36" s="11">
-        <v>55333</v>
+        <v>102000</v>
       </c>
       <c r="H36" s="11">
-        <v>102000</v>
-      </c>
-      <c r="I36" s="11">
         <v>244421</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>15</v>
+      <c r="I36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="11">
+        <v>30886</v>
       </c>
       <c r="K36" s="11">
-        <v>30886</v>
+        <v>112000</v>
       </c>
       <c r="L36" s="11">
-        <v>112000</v>
+        <v>189000</v>
       </c>
       <c r="M36" s="11">
-        <v>189000</v>
+        <v>66</v>
       </c>
       <c r="N36" s="11">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>165112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>39</v>
       </c>
@@ -1886,37 +1886,37 @@
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9">
-        <v>145255</v>
+        <v>659000</v>
       </c>
       <c r="F37" s="9">
-        <v>659000</v>
+        <v>843747</v>
       </c>
       <c r="G37" s="9">
-        <v>843747</v>
+        <v>222000</v>
       </c>
       <c r="H37" s="9">
-        <v>222000</v>
-      </c>
-      <c r="I37" s="9">
         <v>158168</v>
       </c>
-      <c r="J37" s="9" t="s">
-        <v>15</v>
+      <c r="I37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="9">
+        <v>224396</v>
       </c>
       <c r="K37" s="9">
-        <v>224396</v>
+        <v>381000</v>
       </c>
       <c r="L37" s="9">
-        <v>381000</v>
+        <v>242000</v>
       </c>
       <c r="M37" s="9">
-        <v>242000</v>
+        <v>149</v>
       </c>
       <c r="N37" s="9">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>979218</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>40</v>
       </c>
@@ -1931,68 +1931,68 @@
         <v>0</v>
       </c>
       <c r="G38" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" s="11">
         <v>1</v>
       </c>
-      <c r="I38" s="11">
-        <v>1</v>
-      </c>
-      <c r="J38" s="11" t="s">
-        <v>15</v>
+      <c r="I38" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1147652</v>
       </c>
       <c r="K38" s="11">
-        <v>1147652</v>
+        <v>134957</v>
       </c>
       <c r="L38" s="11">
-        <v>134957</v>
+        <v>282695</v>
       </c>
       <c r="M38" s="11">
-        <v>282695</v>
+        <v>1000000</v>
       </c>
       <c r="N38" s="11">
         <v>1000000</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
-        <v>10304281</v>
+        <v>28351000</v>
       </c>
       <c r="F39" s="15">
-        <v>28351000</v>
+        <v>26269360</v>
       </c>
       <c r="G39" s="15">
-        <v>26269360</v>
+        <v>22046001</v>
       </c>
       <c r="H39" s="15">
-        <v>22046001</v>
+        <v>22215059</v>
       </c>
       <c r="I39" s="15">
-        <v>22215059</v>
+        <v>0</v>
       </c>
       <c r="J39" s="15">
-        <v>0</v>
+        <v>7019969</v>
       </c>
       <c r="K39" s="15">
-        <v>7019969</v>
+        <v>30332957</v>
       </c>
       <c r="L39" s="15">
-        <v>30332957</v>
+        <v>26290613</v>
       </c>
       <c r="M39" s="15">
-        <v>26290613</v>
+        <v>1027495</v>
       </c>
       <c r="N39" s="15">
-        <v>1027495</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>48181310</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2007,7 +2007,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -2022,7 +2022,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2037,7 +2037,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>43</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2089,7 +2089,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>28</v>
       </c>
@@ -2098,37 +2098,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>183290</v>
+        <v>167300</v>
       </c>
       <c r="F45" s="9">
-        <v>167300</v>
+        <v>308700</v>
       </c>
       <c r="G45" s="9">
-        <v>308700</v>
+        <v>166410</v>
       </c>
       <c r="H45" s="9">
-        <v>166410</v>
-      </c>
-      <c r="I45" s="9">
         <v>224590</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>15</v>
+      <c r="I45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="9">
+        <v>-609843</v>
       </c>
       <c r="K45" s="9">
-        <v>-609843</v>
+        <v>211000</v>
       </c>
       <c r="L45" s="9">
-        <v>211000</v>
+        <v>-210631</v>
       </c>
       <c r="M45" s="9">
-        <v>-210631</v>
+        <v>547321</v>
       </c>
       <c r="N45" s="9">
-        <v>547321</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>226541</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>30</v>
       </c>
@@ -2139,35 +2139,35 @@
       <c r="E46" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="11" t="s">
-        <v>15</v>
+      <c r="F46" s="11">
+        <v>1386000</v>
       </c>
       <c r="G46" s="11">
-        <v>1386000</v>
+        <v>296561</v>
       </c>
       <c r="H46" s="11">
-        <v>296561</v>
-      </c>
-      <c r="I46" s="11">
         <v>383439</v>
       </c>
-      <c r="J46" s="11" t="s">
-        <v>15</v>
+      <c r="I46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="11">
+        <v>-1086808</v>
       </c>
       <c r="K46" s="11">
-        <v>-1086808</v>
+        <v>368000</v>
       </c>
       <c r="L46" s="11">
-        <v>368000</v>
+        <v>-367724</v>
       </c>
       <c r="M46" s="11">
-        <v>-367724</v>
+        <v>1169279</v>
       </c>
       <c r="N46" s="11">
-        <v>1169279</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>537509</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>31</v>
       </c>
@@ -2178,35 +2178,35 @@
       <c r="E47" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>15</v>
+      <c r="F47" s="9">
+        <v>465000</v>
       </c>
       <c r="G47" s="9">
-        <v>465000</v>
+        <v>134157</v>
       </c>
       <c r="H47" s="9">
-        <v>134157</v>
-      </c>
-      <c r="I47" s="9">
         <v>181843</v>
       </c>
-      <c r="J47" s="9" t="s">
-        <v>15</v>
+      <c r="I47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" s="9">
+        <v>-500518</v>
       </c>
       <c r="K47" s="9">
-        <v>-500518</v>
+        <v>179000</v>
       </c>
       <c r="L47" s="9">
-        <v>179000</v>
+        <v>-178841</v>
       </c>
       <c r="M47" s="9">
-        <v>-178841</v>
+        <v>561810</v>
       </c>
       <c r="N47" s="9">
-        <v>561810</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>224192</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>32</v>
       </c>
@@ -2215,37 +2215,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>3218660</v>
+        <v>592228</v>
       </c>
       <c r="F48" s="11">
-        <v>592228</v>
+        <v>683772</v>
       </c>
       <c r="G48" s="11">
-        <v>683772</v>
+        <v>3173589</v>
       </c>
       <c r="H48" s="11">
-        <v>3173589</v>
-      </c>
-      <c r="I48" s="11">
         <v>4802411</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>15</v>
+      <c r="I48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" s="11">
+        <v>-9862218</v>
       </c>
       <c r="K48" s="11">
-        <v>-9862218</v>
+        <v>3019000</v>
       </c>
       <c r="L48" s="11">
-        <v>3019000</v>
+        <v>-3009844</v>
       </c>
       <c r="M48" s="11">
-        <v>-3009844</v>
+        <v>9316588</v>
       </c>
       <c r="N48" s="11">
-        <v>9316588</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22026</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
@@ -2254,37 +2254,37 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>26819210</v>
+        <v>6746128</v>
       </c>
       <c r="F49" s="9">
-        <v>6746128</v>
+        <v>8120805</v>
       </c>
       <c r="G49" s="9">
-        <v>8120805</v>
+        <v>11148352</v>
       </c>
       <c r="H49" s="9">
-        <v>11148352</v>
-      </c>
-      <c r="I49" s="9">
         <v>10106648</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>15</v>
+      <c r="I49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" s="9">
+        <v>46913</v>
       </c>
       <c r="K49" s="9">
-        <v>46913</v>
+        <v>5477000</v>
       </c>
       <c r="L49" s="9">
-        <v>5477000</v>
+        <v>-5455595</v>
       </c>
       <c r="M49" s="9">
-        <v>-5455595</v>
+        <v>53187151</v>
       </c>
       <c r="N49" s="9">
-        <v>53187151</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34578</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>34</v>
       </c>
@@ -2293,37 +2293,37 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>850000</v>
+        <v>1042762</v>
       </c>
       <c r="F50" s="11">
-        <v>1042762</v>
+        <v>284238</v>
       </c>
       <c r="G50" s="11">
-        <v>284238</v>
+        <v>456341</v>
       </c>
       <c r="H50" s="11">
-        <v>456341</v>
-      </c>
-      <c r="I50" s="11">
         <v>1035659</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>15</v>
+      <c r="I50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-2125151</v>
       </c>
       <c r="K50" s="11">
-        <v>-2125151</v>
+        <v>768000</v>
       </c>
       <c r="L50" s="11">
-        <v>768000</v>
+        <v>-767363</v>
       </c>
       <c r="M50" s="11">
-        <v>-767363</v>
+        <v>2407502</v>
       </c>
       <c r="N50" s="11">
-        <v>2407502</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35422</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>35</v>
       </c>
@@ -2332,37 +2332,37 @@
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
-        <v>554260</v>
+        <v>4140777</v>
       </c>
       <c r="F51" s="9">
-        <v>4140777</v>
+        <v>1176223</v>
       </c>
       <c r="G51" s="9">
-        <v>1176223</v>
+        <v>2036970</v>
       </c>
       <c r="H51" s="9">
-        <v>2036970</v>
-      </c>
-      <c r="I51" s="9">
         <v>2189030</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>15</v>
+      <c r="I51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" s="9">
+        <v>-7288952</v>
       </c>
       <c r="K51" s="9">
-        <v>-7288952</v>
+        <v>2646000</v>
       </c>
       <c r="L51" s="9">
-        <v>2646000</v>
+        <v>-2644115</v>
       </c>
       <c r="M51" s="9">
-        <v>-2644115</v>
+        <v>6937014</v>
       </c>
       <c r="N51" s="9">
-        <v>6937014</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1763128</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>36</v>
       </c>
@@ -2373,35 +2373,35 @@
       <c r="E52" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>15</v>
+      <c r="F52" s="11">
+        <v>1112000</v>
       </c>
       <c r="G52" s="11">
-        <v>1112000</v>
+        <v>0</v>
       </c>
       <c r="H52" s="11">
         <v>0</v>
       </c>
-      <c r="I52" s="11">
-        <v>0</v>
-      </c>
-      <c r="J52" s="11" t="s">
-        <v>15</v>
+      <c r="I52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="11">
+        <v>-139789</v>
       </c>
       <c r="K52" s="11">
-        <v>-139789</v>
+        <v>360000</v>
       </c>
       <c r="L52" s="11">
-        <v>360000</v>
+        <v>-359846</v>
       </c>
       <c r="M52" s="11">
-        <v>-359846</v>
+        <v>979482</v>
       </c>
       <c r="N52" s="11">
-        <v>979482</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+        <v>358663</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>37</v>
       </c>
@@ -2410,37 +2410,37 @@
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
-        <v>387010</v>
+        <v>398700</v>
       </c>
       <c r="F53" s="9">
-        <v>398700</v>
+        <v>1125300</v>
       </c>
       <c r="G53" s="9">
-        <v>1125300</v>
+        <v>782368</v>
       </c>
       <c r="H53" s="9">
-        <v>782368</v>
-      </c>
-      <c r="I53" s="9">
         <v>1159632</v>
       </c>
-      <c r="J53" s="9" t="s">
-        <v>15</v>
+      <c r="I53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="9">
+        <v>-2809944</v>
       </c>
       <c r="K53" s="9">
-        <v>-2809944</v>
+        <v>605000</v>
       </c>
       <c r="L53" s="9">
-        <v>605000</v>
+        <v>-604750</v>
       </c>
       <c r="M53" s="9">
-        <v>-604750</v>
+        <v>2165794</v>
       </c>
       <c r="N53" s="9">
-        <v>2165794</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+        <v>517777</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>38</v>
       </c>
@@ -2449,37 +2449,37 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>336425</v>
+        <v>120840</v>
       </c>
       <c r="F54" s="11">
-        <v>120840</v>
+        <v>166160</v>
       </c>
       <c r="G54" s="11">
-        <v>166160</v>
+        <v>253100</v>
       </c>
       <c r="H54" s="11">
-        <v>253100</v>
-      </c>
-      <c r="I54" s="11">
         <v>-100</v>
       </c>
-      <c r="J54" s="11" t="s">
-        <v>15</v>
+      <c r="I54" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" s="11">
+        <v>-405465</v>
       </c>
       <c r="K54" s="11">
-        <v>-405465</v>
+        <v>435000</v>
       </c>
       <c r="L54" s="11">
-        <v>435000</v>
+        <v>-434765</v>
       </c>
       <c r="M54" s="11">
-        <v>-434765</v>
+        <v>1238215</v>
       </c>
       <c r="N54" s="11">
-        <v>1238215</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>439390</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>39</v>
       </c>
@@ -2488,37 +2488,37 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>1381960</v>
+        <v>2180636</v>
       </c>
       <c r="F55" s="9">
-        <v>2180636</v>
+        <v>4364</v>
       </c>
       <c r="G55" s="9">
-        <v>4364</v>
+        <v>1245060</v>
       </c>
       <c r="H55" s="9">
-        <v>1245060</v>
-      </c>
-      <c r="I55" s="9">
         <v>1424940</v>
       </c>
-      <c r="J55" s="9" t="s">
-        <v>15</v>
+      <c r="I55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="9">
+        <v>-3871049</v>
       </c>
       <c r="K55" s="9">
-        <v>-3871049</v>
+        <v>1061000</v>
       </c>
       <c r="L55" s="9">
-        <v>1061000</v>
+        <v>-1060311</v>
       </c>
       <c r="M55" s="9">
-        <v>-1060311</v>
+        <v>5044014</v>
       </c>
       <c r="N55" s="9">
-        <v>5044014</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1682007</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>40</v>
       </c>
@@ -2533,68 +2533,68 @@
         <v>0</v>
       </c>
       <c r="G56" s="11">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11">
+        <v>2369999</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" s="11">
+        <v>-1147652</v>
+      </c>
+      <c r="K56" s="11">
+        <v>147738</v>
+      </c>
+      <c r="L56" s="11">
+        <v>852262</v>
+      </c>
+      <c r="M56" s="11">
         <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <v>1</v>
-      </c>
-      <c r="I56" s="11">
-        <v>2369999</v>
-      </c>
-      <c r="J56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K56" s="11">
-        <v>-1147652</v>
-      </c>
-      <c r="L56" s="11">
-        <v>147738</v>
-      </c>
-      <c r="M56" s="11">
-        <v>852262</v>
       </c>
       <c r="N56" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15">
-        <v>33730815</v>
+        <v>15389371</v>
       </c>
       <c r="F57" s="15">
-        <v>15389371</v>
+        <v>14832562</v>
       </c>
       <c r="G57" s="15">
-        <v>14832562</v>
+        <v>19692909</v>
       </c>
       <c r="H57" s="15">
-        <v>19692909</v>
+        <v>23878091</v>
       </c>
       <c r="I57" s="15">
-        <v>23878091</v>
+        <v>0</v>
       </c>
       <c r="J57" s="15">
-        <v>0</v>
+        <v>-29800476</v>
       </c>
       <c r="K57" s="15">
-        <v>-29800476</v>
+        <v>15276738</v>
       </c>
       <c r="L57" s="15">
-        <v>15276738</v>
+        <v>-14241523</v>
       </c>
       <c r="M57" s="15">
-        <v>-14241523</v>
+        <v>83554170</v>
       </c>
       <c r="N57" s="15">
-        <v>83554170</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5841233</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2609,7 +2609,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2624,7 +2624,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2639,7 +2639,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>44</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2691,7 +2691,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>28</v>
       </c>
@@ -2700,37 +2700,37 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>213530</v>
+        <v>209211</v>
       </c>
       <c r="F63" s="9">
-        <v>209211</v>
+        <v>231789</v>
       </c>
       <c r="G63" s="9">
-        <v>231789</v>
+        <v>272193</v>
       </c>
       <c r="H63" s="9">
-        <v>272193</v>
-      </c>
-      <c r="I63" s="9">
         <v>197807</v>
       </c>
-      <c r="J63" s="9" t="s">
-        <v>15</v>
+      <c r="I63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="9">
+        <v>-714394</v>
       </c>
       <c r="K63" s="9">
-        <v>-714394</v>
+        <v>218000</v>
       </c>
       <c r="L63" s="9">
-        <v>218000</v>
+        <v>-217148</v>
       </c>
       <c r="M63" s="9">
-        <v>-217148</v>
+        <v>595769</v>
       </c>
       <c r="N63" s="9">
-        <v>595769</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>163156</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>30</v>
       </c>
@@ -2741,35 +2741,35 @@
       <c r="E64" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>15</v>
+      <c r="F64" s="11">
+        <v>1317000</v>
       </c>
       <c r="G64" s="11">
-        <v>1317000</v>
+        <v>392524</v>
       </c>
       <c r="H64" s="11">
-        <v>392524</v>
-      </c>
-      <c r="I64" s="11">
         <v>403476</v>
       </c>
-      <c r="J64" s="11" t="s">
-        <v>15</v>
+      <c r="I64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" s="11">
+        <v>-1183493</v>
       </c>
       <c r="K64" s="11">
-        <v>-1183493</v>
+        <v>425000</v>
       </c>
       <c r="L64" s="11">
-        <v>425000</v>
+        <v>-424221</v>
       </c>
       <c r="M64" s="11">
-        <v>-424221</v>
+        <v>1165061</v>
       </c>
       <c r="N64" s="11">
-        <v>1165061</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+        <v>540568</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>31</v>
       </c>
@@ -2780,35 +2780,35 @@
       <c r="E65" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>15</v>
+      <c r="F65" s="9">
+        <v>464000</v>
       </c>
       <c r="G65" s="9">
-        <v>464000</v>
+        <v>150077</v>
       </c>
       <c r="H65" s="9">
-        <v>150077</v>
-      </c>
-      <c r="I65" s="9">
         <v>185923</v>
       </c>
-      <c r="J65" s="9" t="s">
-        <v>15</v>
+      <c r="I65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="9">
+        <v>-529519</v>
       </c>
       <c r="K65" s="9">
-        <v>-529519</v>
+        <v>201000</v>
       </c>
       <c r="L65" s="9">
-        <v>201000</v>
+        <v>-200612</v>
       </c>
       <c r="M65" s="9">
-        <v>-200612</v>
+        <v>542669</v>
       </c>
       <c r="N65" s="9">
-        <v>542669</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>215232</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>32</v>
       </c>
@@ -2817,37 +2817,37 @@
       </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11">
-        <v>1645608</v>
+        <v>1712192</v>
       </c>
       <c r="F66" s="11">
-        <v>1712192</v>
+        <v>1422808</v>
       </c>
       <c r="G66" s="11">
-        <v>1422808</v>
+        <v>1675436</v>
       </c>
       <c r="H66" s="11">
-        <v>1675436</v>
-      </c>
-      <c r="I66" s="11">
         <v>2011564</v>
       </c>
-      <c r="J66" s="11" t="s">
-        <v>15</v>
+      <c r="I66" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" s="11">
+        <v>-6688697</v>
       </c>
       <c r="K66" s="11">
-        <v>-6688697</v>
+        <v>1837000</v>
       </c>
       <c r="L66" s="11">
-        <v>1837000</v>
+        <v>-1831687</v>
       </c>
       <c r="M66" s="11">
-        <v>-1831687</v>
+        <v>7284466</v>
       </c>
       <c r="N66" s="11">
-        <v>7284466</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2319059</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
@@ -2856,37 +2856,37 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9">
-        <v>9585063</v>
+        <v>10996453</v>
       </c>
       <c r="F67" s="9">
-        <v>10996453</v>
+        <v>10245547</v>
       </c>
       <c r="G67" s="9">
-        <v>10245547</v>
+        <v>11080927</v>
       </c>
       <c r="H67" s="9">
-        <v>11080927</v>
-      </c>
-      <c r="I67" s="9">
         <v>10038073</v>
       </c>
-      <c r="J67" s="9" t="s">
-        <v>15</v>
+      <c r="I67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" s="9">
+        <v>39282</v>
       </c>
       <c r="K67" s="9">
-        <v>39282</v>
+        <v>13049000</v>
       </c>
       <c r="L67" s="9">
-        <v>13049000</v>
+        <v>-13023522</v>
       </c>
       <c r="M67" s="9">
-        <v>-13023522</v>
+        <v>38798276</v>
       </c>
       <c r="N67" s="9">
-        <v>38798276</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20219939</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>34</v>
       </c>
@@ -2895,37 +2895,37 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>255543</v>
+        <v>513397</v>
       </c>
       <c r="F68" s="11">
-        <v>513397</v>
+        <v>565603</v>
       </c>
       <c r="G68" s="11">
-        <v>565603</v>
+        <v>676992</v>
       </c>
       <c r="H68" s="11">
-        <v>676992</v>
-      </c>
-      <c r="I68" s="11">
         <v>858008</v>
       </c>
-      <c r="J68" s="11" t="s">
-        <v>15</v>
+      <c r="I68" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="11">
+        <v>-2491412</v>
       </c>
       <c r="K68" s="11">
-        <v>-2491412</v>
+        <v>677000</v>
       </c>
       <c r="L68" s="11">
-        <v>677000</v>
+        <v>-675819</v>
       </c>
       <c r="M68" s="11">
-        <v>-675819</v>
+        <v>1672463</v>
       </c>
       <c r="N68" s="11">
-        <v>1672463</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>784687</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>35</v>
       </c>
@@ -2934,37 +2934,37 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9">
-        <v>2337833</v>
+        <v>1291725</v>
       </c>
       <c r="F69" s="9">
-        <v>1291725</v>
+        <v>3052275</v>
       </c>
       <c r="G69" s="9">
-        <v>3052275</v>
+        <v>2609643</v>
       </c>
       <c r="H69" s="9">
-        <v>2609643</v>
-      </c>
-      <c r="I69" s="9">
         <v>2277357</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>15</v>
+      <c r="I69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="9">
+        <v>-7866277</v>
       </c>
       <c r="K69" s="9">
-        <v>-7866277</v>
+        <v>3082</v>
       </c>
       <c r="L69" s="9">
-        <v>3082</v>
+        <v>2241</v>
       </c>
       <c r="M69" s="9">
-        <v>2241</v>
+        <v>7395258</v>
       </c>
       <c r="N69" s="9">
-        <v>7395258</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1589071</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>36</v>
       </c>
@@ -2975,35 +2975,35 @@
       <c r="E70" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="11" t="s">
-        <v>15</v>
+      <c r="F70" s="11">
+        <v>1034000</v>
       </c>
       <c r="G70" s="11">
-        <v>1034000</v>
+        <v>379911</v>
       </c>
       <c r="H70" s="11">
-        <v>379911</v>
-      </c>
-      <c r="I70" s="11">
         <v>275089</v>
       </c>
-      <c r="J70" s="11" t="s">
-        <v>15</v>
+      <c r="I70" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="11">
+        <v>-895673</v>
       </c>
       <c r="K70" s="11">
-        <v>-895673</v>
+        <v>246000</v>
       </c>
       <c r="L70" s="11">
-        <v>246000</v>
+        <v>-245490</v>
       </c>
       <c r="M70" s="11">
-        <v>-245490</v>
+        <v>817055</v>
       </c>
       <c r="N70" s="11">
-        <v>817055</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>481518</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>37</v>
       </c>
@@ -3012,37 +3012,37 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>571215</v>
+        <v>423131</v>
       </c>
       <c r="F71" s="9">
-        <v>423131</v>
+        <v>767869</v>
       </c>
       <c r="G71" s="9">
-        <v>767869</v>
+        <v>866576</v>
       </c>
       <c r="H71" s="9">
-        <v>866576</v>
-      </c>
-      <c r="I71" s="9">
         <v>880424</v>
       </c>
-      <c r="J71" s="9" t="s">
-        <v>15</v>
+      <c r="I71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="9">
+        <v>-2905926</v>
       </c>
       <c r="K71" s="9">
-        <v>-2905926</v>
+        <v>1105000</v>
       </c>
       <c r="L71" s="9">
-        <v>1105000</v>
+        <v>-1102417</v>
       </c>
       <c r="M71" s="9">
-        <v>-1102417</v>
+        <v>2660879</v>
       </c>
       <c r="N71" s="9">
-        <v>2660879</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>536940</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>38</v>
       </c>
@@ -3051,37 +3051,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>207089</v>
+        <v>328130</v>
       </c>
       <c r="F72" s="11">
-        <v>328130</v>
+        <v>119870</v>
       </c>
       <c r="G72" s="11">
-        <v>119870</v>
+        <v>110679</v>
       </c>
       <c r="H72" s="11">
-        <v>110679</v>
-      </c>
-      <c r="I72" s="11">
         <v>183321</v>
       </c>
-      <c r="J72" s="11" t="s">
-        <v>15</v>
+      <c r="I72" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="11">
+        <v>-476706</v>
       </c>
       <c r="K72" s="11">
-        <v>-476706</v>
+        <v>358000</v>
       </c>
       <c r="L72" s="11">
-        <v>358000</v>
+        <v>-357411</v>
       </c>
       <c r="M72" s="11">
-        <v>-357411</v>
+        <v>1184299</v>
       </c>
       <c r="N72" s="11">
-        <v>1184299</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>486331</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>39</v>
       </c>
@@ -3090,37 +3090,37 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>868215</v>
+        <v>1996052</v>
       </c>
       <c r="F73" s="9">
-        <v>1996052</v>
+        <v>625948</v>
       </c>
       <c r="G73" s="9">
-        <v>625948</v>
+        <v>1308892</v>
       </c>
       <c r="H73" s="9">
-        <v>1308892</v>
-      </c>
-      <c r="I73" s="9">
         <v>1303108</v>
       </c>
-      <c r="J73" s="9" t="s">
-        <v>15</v>
+      <c r="I73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="9">
+        <v>-3868901</v>
       </c>
       <c r="K73" s="9">
-        <v>-3868901</v>
+        <v>1200000</v>
       </c>
       <c r="L73" s="9">
-        <v>1200000</v>
+        <v>-1197351</v>
       </c>
       <c r="M73" s="9">
-        <v>-1197351</v>
+        <v>4443393</v>
       </c>
       <c r="N73" s="9">
-        <v>4443393</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2511739</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>40</v>
       </c>
@@ -3135,68 +3135,68 @@
         <v>0</v>
       </c>
       <c r="G74" s="11">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11">
+        <v>1771999</v>
+      </c>
+      <c r="I74" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="11">
         <v>0</v>
-      </c>
-      <c r="H74" s="11">
-        <v>1</v>
-      </c>
-      <c r="I74" s="11">
-        <v>1771999</v>
-      </c>
-      <c r="J74" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="K74" s="11">
         <v>0</v>
       </c>
       <c r="L74" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="M74" s="11">
         <v>0</v>
-      </c>
-      <c r="M74" s="11">
-        <v>1000000</v>
       </c>
       <c r="N74" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15">
-        <v>15684096</v>
+        <v>17470291</v>
       </c>
       <c r="F75" s="15">
-        <v>17470291</v>
+        <v>19846709</v>
       </c>
       <c r="G75" s="15">
-        <v>19846709</v>
+        <v>19523851</v>
       </c>
       <c r="H75" s="15">
-        <v>19523851</v>
+        <v>20386149</v>
       </c>
       <c r="I75" s="15">
-        <v>20386149</v>
+        <v>0</v>
       </c>
       <c r="J75" s="15">
-        <v>0</v>
+        <v>-27581716</v>
       </c>
       <c r="K75" s="15">
-        <v>-27581716</v>
+        <v>19319082</v>
       </c>
       <c r="L75" s="15">
-        <v>19319082</v>
+        <v>-18273437</v>
       </c>
       <c r="M75" s="15">
-        <v>-18273437</v>
+        <v>66559588</v>
       </c>
       <c r="N75" s="15">
-        <v>66559588</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29848240</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3211,7 +3211,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3226,7 +3226,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3241,7 +3241,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="7" t="s">
         <v>45</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3293,7 +3293,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>28</v>
       </c>
@@ -3302,37 +3302,37 @@
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9">
-        <v>89000</v>
+        <v>47221</v>
       </c>
       <c r="F81" s="9">
-        <v>47221</v>
+        <v>124000</v>
       </c>
       <c r="G81" s="9">
-        <v>124000</v>
+        <v>18217</v>
       </c>
       <c r="H81" s="9">
-        <v>18217</v>
-      </c>
-      <c r="I81" s="9">
         <v>45000</v>
       </c>
-      <c r="J81" s="9" t="s">
-        <v>15</v>
+      <c r="I81" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="9">
+        <v>69</v>
       </c>
       <c r="K81" s="9">
-        <v>69</v>
+        <v>62000</v>
       </c>
       <c r="L81" s="9">
-        <v>62000</v>
+        <v>14</v>
       </c>
       <c r="M81" s="9">
-        <v>14</v>
+        <v>20002</v>
       </c>
       <c r="N81" s="9">
-        <v>20002</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83387</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>30</v>
       </c>
@@ -3343,35 +3343,35 @@
       <c r="E82" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>15</v>
+      <c r="F82" s="11">
+        <v>134000</v>
       </c>
       <c r="G82" s="11">
-        <v>134000</v>
+        <v>38037</v>
       </c>
       <c r="H82" s="11">
-        <v>38037</v>
-      </c>
-      <c r="I82" s="11">
         <v>18000</v>
       </c>
-      <c r="J82" s="11" t="s">
-        <v>15</v>
+      <c r="I82" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="11">
+        <v>96</v>
       </c>
       <c r="K82" s="11">
-        <v>96</v>
+        <v>39000</v>
       </c>
       <c r="L82" s="11">
-        <v>39000</v>
+        <v>21</v>
       </c>
       <c r="M82" s="11">
-        <v>21</v>
+        <v>99584</v>
       </c>
       <c r="N82" s="11">
-        <v>99584</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>96525</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>31</v>
       </c>
@@ -3382,35 +3382,35 @@
       <c r="E83" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="9" t="s">
-        <v>15</v>
+      <c r="F83" s="9">
+        <v>21000</v>
       </c>
       <c r="G83" s="9">
-        <v>21000</v>
+        <v>5080</v>
       </c>
       <c r="H83" s="9">
-        <v>5080</v>
-      </c>
-      <c r="I83" s="9">
         <v>18000</v>
       </c>
-      <c r="J83" s="9" t="s">
-        <v>15</v>
+      <c r="I83" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="9">
+        <v>45</v>
       </c>
       <c r="K83" s="9">
-        <v>45</v>
+        <v>23000</v>
       </c>
       <c r="L83" s="9">
-        <v>23000</v>
+        <v>24</v>
       </c>
       <c r="M83" s="9">
-        <v>24</v>
+        <v>63719</v>
       </c>
       <c r="N83" s="9">
-        <v>63719</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+        <v>72679</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>32</v>
       </c>
@@ -3419,37 +3419,37 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>2779000</v>
+        <v>1658674</v>
       </c>
       <c r="F84" s="11">
-        <v>1658674</v>
+        <v>920000</v>
       </c>
       <c r="G84" s="11">
-        <v>920000</v>
+        <v>2418153</v>
       </c>
       <c r="H84" s="11">
-        <v>2418153</v>
-      </c>
-      <c r="I84" s="11">
         <v>5335000</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>15</v>
+      <c r="I84" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" s="11">
+        <v>2375</v>
       </c>
       <c r="K84" s="11">
-        <v>2375</v>
+        <v>3558000</v>
       </c>
       <c r="L84" s="11">
-        <v>3558000</v>
+        <v>5648</v>
       </c>
       <c r="M84" s="11">
-        <v>5648</v>
+        <v>4411554</v>
       </c>
       <c r="N84" s="11">
-        <v>4411554</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2114521</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>33</v>
       </c>
@@ -3458,37 +3458,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>23647000</v>
+        <v>19394675</v>
       </c>
       <c r="F85" s="9">
-        <v>19394675</v>
+        <v>17270000</v>
       </c>
       <c r="G85" s="9">
-        <v>17270000</v>
+        <v>17337425</v>
       </c>
       <c r="H85" s="9">
-        <v>17337425</v>
-      </c>
-      <c r="I85" s="9">
         <v>17515000</v>
       </c>
-      <c r="J85" s="9" t="s">
-        <v>15</v>
+      <c r="I85" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" s="9">
+        <v>24901</v>
       </c>
       <c r="K85" s="9">
-        <v>24901</v>
+        <v>17329000</v>
       </c>
       <c r="L85" s="9">
-        <v>17329000</v>
+        <v>20828</v>
       </c>
       <c r="M85" s="9">
-        <v>20828</v>
+        <v>39286019</v>
       </c>
       <c r="N85" s="9">
-        <v>39286019</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19100658</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>34</v>
       </c>
@@ -3497,37 +3497,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>770000</v>
+        <v>1300006</v>
       </c>
       <c r="F86" s="11">
-        <v>1300006</v>
+        <v>1018000</v>
       </c>
       <c r="G86" s="11">
-        <v>1018000</v>
+        <v>797349</v>
       </c>
       <c r="H86" s="11">
-        <v>797349</v>
-      </c>
-      <c r="I86" s="11">
         <v>975000</v>
       </c>
-      <c r="J86" s="11" t="s">
-        <v>15</v>
+      <c r="I86" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="11">
+        <v>420</v>
       </c>
       <c r="K86" s="11">
-        <v>420</v>
+        <v>511000</v>
       </c>
       <c r="L86" s="11">
-        <v>511000</v>
+        <v>363</v>
       </c>
       <c r="M86" s="11">
-        <v>363</v>
+        <v>1154656</v>
       </c>
       <c r="N86" s="11">
-        <v>1154656</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>405391</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>35</v>
       </c>
@@ -3536,37 +3536,37 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>75000</v>
+        <v>2924573</v>
       </c>
       <c r="F87" s="9">
-        <v>2924573</v>
+        <v>1048000</v>
       </c>
       <c r="G87" s="9">
-        <v>1048000</v>
+        <v>475327</v>
       </c>
       <c r="H87" s="9">
-        <v>475327</v>
-      </c>
-      <c r="I87" s="9">
         <v>387000</v>
       </c>
-      <c r="J87" s="9" t="s">
-        <v>15</v>
+      <c r="I87" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="9">
+        <v>1011</v>
       </c>
       <c r="K87" s="9">
-        <v>1011</v>
+        <v>3653918</v>
       </c>
       <c r="L87" s="9">
-        <v>3653918</v>
+        <v>140</v>
       </c>
       <c r="M87" s="9">
-        <v>140</v>
+        <v>549796</v>
       </c>
       <c r="N87" s="9">
-        <v>549796</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>723853</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>36</v>
       </c>
@@ -3577,35 +3577,35 @@
       <c r="E88" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>15</v>
+      <c r="F88" s="11">
+        <v>785000</v>
       </c>
       <c r="G88" s="11">
-        <v>785000</v>
+        <v>405089</v>
       </c>
       <c r="H88" s="11">
-        <v>405089</v>
-      </c>
-      <c r="I88" s="11">
         <v>130000</v>
       </c>
-      <c r="J88" s="11" t="s">
-        <v>15</v>
+      <c r="I88" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" s="11">
+        <v>170</v>
       </c>
       <c r="K88" s="11">
-        <v>170</v>
+        <v>284000</v>
       </c>
       <c r="L88" s="11">
-        <v>284000</v>
+        <v>79</v>
       </c>
       <c r="M88" s="11">
-        <v>79</v>
+        <v>332080</v>
       </c>
       <c r="N88" s="11">
-        <v>332080</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>209225</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>37</v>
       </c>
@@ -3614,37 +3614,37 @@
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
-        <v>69000</v>
+        <v>45131</v>
       </c>
       <c r="F89" s="9">
-        <v>45131</v>
+        <v>402000</v>
       </c>
       <c r="G89" s="9">
-        <v>402000</v>
+        <v>317792</v>
       </c>
       <c r="H89" s="9">
-        <v>317792</v>
-      </c>
-      <c r="I89" s="9">
         <v>597000</v>
       </c>
-      <c r="J89" s="9" t="s">
-        <v>15</v>
+      <c r="I89" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" s="9">
+        <v>617</v>
       </c>
       <c r="K89" s="9">
-        <v>617</v>
+        <v>117000</v>
       </c>
       <c r="L89" s="9">
-        <v>117000</v>
+        <v>163</v>
       </c>
       <c r="M89" s="9">
-        <v>163</v>
+        <v>119570</v>
       </c>
       <c r="N89" s="9">
-        <v>119570</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>100407</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>38</v>
       </c>
@@ -3653,37 +3653,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>263000</v>
+        <v>55333</v>
       </c>
       <c r="F90" s="11">
-        <v>55333</v>
+        <v>102000</v>
       </c>
       <c r="G90" s="11">
-        <v>102000</v>
+        <v>244421</v>
       </c>
       <c r="H90" s="11">
-        <v>244421</v>
-      </c>
-      <c r="I90" s="11">
         <v>61000</v>
       </c>
-      <c r="J90" s="11" t="s">
-        <v>15</v>
+      <c r="I90" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" s="11">
+        <v>111</v>
       </c>
       <c r="K90" s="11">
-        <v>111</v>
+        <v>189000</v>
       </c>
       <c r="L90" s="11">
-        <v>189000</v>
+        <v>66</v>
       </c>
       <c r="M90" s="11">
-        <v>66</v>
+        <v>165112</v>
       </c>
       <c r="N90" s="11">
-        <v>165112</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>118171</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>39</v>
       </c>
@@ -3692,37 +3692,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>659000</v>
+        <v>843747</v>
       </c>
       <c r="F91" s="9">
-        <v>843747</v>
+        <v>222000</v>
       </c>
       <c r="G91" s="9">
-        <v>222000</v>
+        <v>158168</v>
       </c>
       <c r="H91" s="9">
-        <v>158168</v>
-      </c>
-      <c r="I91" s="9">
         <v>280000</v>
       </c>
-      <c r="J91" s="9" t="s">
-        <v>15</v>
+      <c r="I91" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" s="9">
+        <v>381</v>
       </c>
       <c r="K91" s="9">
-        <v>381</v>
+        <v>242000</v>
       </c>
       <c r="L91" s="9">
-        <v>242000</v>
+        <v>149</v>
       </c>
       <c r="M91" s="9">
-        <v>149</v>
+        <v>979218</v>
       </c>
       <c r="N91" s="9">
-        <v>979218</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>149486</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>40</v>
       </c>
@@ -3737,22 +3737,22 @@
         <v>0</v>
       </c>
       <c r="G92" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="11">
-        <v>1</v>
-      </c>
-      <c r="I92" s="11">
         <v>1848000</v>
       </c>
-      <c r="J92" s="11" t="s">
-        <v>15</v>
+      <c r="I92" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" s="11">
+        <v>1000000</v>
       </c>
       <c r="K92" s="11">
+        <v>282695</v>
+      </c>
+      <c r="L92" s="11">
         <v>1000000</v>
-      </c>
-      <c r="L92" s="11">
-        <v>282695</v>
       </c>
       <c r="M92" s="11">
         <v>1000000</v>
@@ -3761,44 +3761,44 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>28351000</v>
+        <v>26269360</v>
       </c>
       <c r="F93" s="15">
-        <v>26269360</v>
+        <v>22046000</v>
       </c>
       <c r="G93" s="15">
-        <v>22046000</v>
+        <v>22215059</v>
       </c>
       <c r="H93" s="15">
-        <v>22215059</v>
+        <v>27209000</v>
       </c>
       <c r="I93" s="15">
-        <v>27209000</v>
+        <v>0</v>
       </c>
       <c r="J93" s="15">
-        <v>0</v>
+        <v>1030196</v>
       </c>
       <c r="K93" s="15">
-        <v>1030196</v>
+        <v>26290613</v>
       </c>
       <c r="L93" s="15">
-        <v>26290613</v>
+        <v>1027495</v>
       </c>
       <c r="M93" s="15">
-        <v>1027495</v>
+        <v>48181310</v>
       </c>
       <c r="N93" s="15">
-        <v>48181310</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24174303</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3813,7 +3813,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3828,7 +3828,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3843,7 +3843,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>46</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3895,7 +3895,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>28</v>
       </c>
@@ -3904,37 +3904,37 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>5053</v>
+        <v>4505</v>
       </c>
       <c r="F99" s="9">
-        <v>4505</v>
+        <v>7169</v>
       </c>
       <c r="G99" s="9">
-        <v>7169</v>
+        <v>19246</v>
       </c>
       <c r="H99" s="9">
-        <v>19246</v>
-      </c>
-      <c r="I99" s="9">
         <v>2534</v>
       </c>
-      <c r="J99" s="9" t="s">
-        <v>15</v>
+      <c r="I99" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" s="9">
+        <v>2643</v>
       </c>
       <c r="K99" s="9">
-        <v>2643</v>
+        <v>9513</v>
       </c>
       <c r="L99" s="9">
-        <v>9513</v>
+        <v>15191</v>
       </c>
       <c r="M99" s="9">
-        <v>15191</v>
+        <v>3706</v>
       </c>
       <c r="N99" s="9">
-        <v>3706</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5422</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>30</v>
       </c>
@@ -3948,32 +3948,32 @@
       <c r="F100" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G100" s="11" t="s">
-        <v>15</v>
+      <c r="G100" s="11">
+        <v>14391</v>
       </c>
       <c r="H100" s="11">
-        <v>14391</v>
-      </c>
-      <c r="I100" s="11">
         <v>3948</v>
       </c>
-      <c r="J100" s="11" t="s">
-        <v>15</v>
+      <c r="I100" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" s="11">
+        <v>3845</v>
       </c>
       <c r="K100" s="11">
-        <v>3845</v>
+        <v>12403</v>
       </c>
       <c r="L100" s="11">
-        <v>12403</v>
+        <v>6436</v>
       </c>
       <c r="M100" s="11">
-        <v>6436</v>
+        <v>3657</v>
       </c>
       <c r="N100" s="11">
-        <v>3657</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17714</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>31</v>
       </c>
@@ -3987,32 +3987,32 @@
       <c r="F101" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G101" s="9" t="s">
-        <v>15</v>
+      <c r="G101" s="9">
+        <v>8605</v>
       </c>
       <c r="H101" s="9">
-        <v>8605</v>
-      </c>
-      <c r="I101" s="9">
         <v>5781</v>
       </c>
-      <c r="J101" s="9" t="s">
-        <v>15</v>
+      <c r="I101" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="9">
+        <v>2446</v>
       </c>
       <c r="K101" s="9">
-        <v>2446</v>
+        <v>16890</v>
       </c>
       <c r="L101" s="9">
-        <v>16890</v>
+        <v>14040</v>
       </c>
       <c r="M101" s="9">
-        <v>14040</v>
+        <v>15544</v>
       </c>
       <c r="N101" s="9">
-        <v>15544</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40446</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>32</v>
       </c>
@@ -4021,37 +4021,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>25787</v>
+        <v>70328</v>
       </c>
       <c r="F102" s="11">
-        <v>70328</v>
+        <v>43638</v>
       </c>
       <c r="G102" s="11">
-        <v>43638</v>
+        <v>28152</v>
       </c>
       <c r="H102" s="11">
-        <v>28152</v>
-      </c>
-      <c r="I102" s="11">
         <v>109913</v>
       </c>
-      <c r="J102" s="11" t="s">
-        <v>15</v>
+      <c r="I102" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" s="11">
+        <v>203503</v>
       </c>
       <c r="K102" s="11">
-        <v>203503</v>
+        <v>118073</v>
       </c>
       <c r="L102" s="11">
-        <v>118073</v>
+        <v>224814</v>
       </c>
       <c r="M102" s="11">
-        <v>224814</v>
+        <v>382779</v>
       </c>
       <c r="N102" s="11">
-        <v>382779</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>298121</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>33</v>
       </c>
@@ -4060,37 +4060,37 @@
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
-        <v>32146</v>
+        <v>145379</v>
       </c>
       <c r="F103" s="9">
-        <v>145379</v>
+        <v>122852</v>
       </c>
       <c r="G103" s="9">
-        <v>122852</v>
+        <v>131451</v>
       </c>
       <c r="H103" s="9">
-        <v>131451</v>
-      </c>
-      <c r="I103" s="9">
         <v>196554</v>
       </c>
+      <c r="I103" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J103" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K103" s="9" t="s">
-        <v>15</v>
+      <c r="K103" s="9">
+        <v>360293</v>
       </c>
       <c r="L103" s="9">
-        <v>360293</v>
+        <v>295407</v>
       </c>
       <c r="M103" s="9">
-        <v>295407</v>
+        <v>343547</v>
       </c>
       <c r="N103" s="9">
-        <v>343547</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>643542</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>34</v>
       </c>
@@ -4099,37 +4099,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>4489</v>
+        <v>21419</v>
       </c>
       <c r="F104" s="11">
-        <v>21419</v>
+        <v>38573</v>
       </c>
       <c r="G104" s="11">
-        <v>38573</v>
+        <v>31843</v>
       </c>
       <c r="H104" s="11">
-        <v>31843</v>
-      </c>
-      <c r="I104" s="11">
         <v>30525</v>
       </c>
-      <c r="J104" s="11" t="s">
-        <v>15</v>
+      <c r="I104" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="11">
+        <v>31788</v>
       </c>
       <c r="K104" s="11">
-        <v>31788</v>
+        <v>24129</v>
       </c>
       <c r="L104" s="11">
-        <v>24129</v>
+        <v>38786</v>
       </c>
       <c r="M104" s="11">
-        <v>38786</v>
+        <v>29525</v>
       </c>
       <c r="N104" s="11">
-        <v>29525</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98970</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>35</v>
       </c>
@@ -4138,37 +4138,37 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>30201</v>
+        <v>1238</v>
       </c>
       <c r="F105" s="9">
-        <v>1238</v>
+        <v>49837</v>
       </c>
       <c r="G105" s="9">
-        <v>49837</v>
+        <v>29189</v>
       </c>
       <c r="H105" s="9">
-        <v>29189</v>
-      </c>
-      <c r="I105" s="9">
         <v>15831</v>
       </c>
-      <c r="J105" s="9" t="s">
-        <v>15</v>
+      <c r="I105" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="9">
+        <v>17506</v>
       </c>
       <c r="K105" s="9">
-        <v>17506</v>
+        <v>37252</v>
       </c>
       <c r="L105" s="9">
-        <v>37252</v>
+        <v>59969</v>
       </c>
       <c r="M105" s="9">
-        <v>59969</v>
+        <v>17111</v>
       </c>
       <c r="N105" s="9">
-        <v>17111</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>71109</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>36</v>
       </c>
@@ -4182,32 +4182,32 @@
       <c r="F106" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G106" s="11" t="s">
-        <v>15</v>
+      <c r="G106" s="11">
+        <v>60008</v>
       </c>
       <c r="H106" s="11">
-        <v>60008</v>
-      </c>
-      <c r="I106" s="11">
         <v>30979</v>
       </c>
-      <c r="J106" s="11" t="s">
-        <v>15</v>
+      <c r="I106" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" s="11">
+        <v>2292</v>
       </c>
       <c r="K106" s="11">
-        <v>2292</v>
+        <v>22181</v>
       </c>
       <c r="L106" s="11">
-        <v>22181</v>
+        <v>44853</v>
       </c>
       <c r="M106" s="11">
-        <v>44853</v>
+        <v>12436</v>
       </c>
       <c r="N106" s="11">
-        <v>12436</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39543</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>37</v>
       </c>
@@ -4216,37 +4216,37 @@
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
-        <v>6748</v>
+        <v>2200</v>
       </c>
       <c r="F107" s="9">
-        <v>2200</v>
+        <v>4996</v>
       </c>
       <c r="G107" s="9">
-        <v>4996</v>
+        <v>15628</v>
       </c>
       <c r="H107" s="9">
-        <v>15628</v>
-      </c>
-      <c r="I107" s="9">
         <v>15252</v>
       </c>
-      <c r="J107" s="9" t="s">
-        <v>15</v>
+      <c r="I107" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="9">
+        <v>12091</v>
       </c>
       <c r="K107" s="9">
-        <v>12091</v>
+        <v>28566</v>
       </c>
       <c r="L107" s="9">
-        <v>28566</v>
+        <v>12708</v>
       </c>
       <c r="M107" s="9">
-        <v>12708</v>
+        <v>20116</v>
       </c>
       <c r="N107" s="9">
-        <v>20116</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23280</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>38</v>
       </c>
@@ -4255,37 +4255,37 @@
       </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11">
-        <v>3269</v>
+        <v>13235</v>
       </c>
       <c r="F108" s="11">
-        <v>13235</v>
+        <v>3086</v>
       </c>
       <c r="G108" s="11">
-        <v>3086</v>
+        <v>10147</v>
       </c>
       <c r="H108" s="11">
-        <v>10147</v>
-      </c>
-      <c r="I108" s="11">
         <v>19473</v>
       </c>
-      <c r="J108" s="11" t="s">
-        <v>15</v>
+      <c r="I108" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="11">
+        <v>2541</v>
       </c>
       <c r="K108" s="11">
-        <v>2541</v>
+        <v>12669</v>
       </c>
       <c r="L108" s="11">
-        <v>12669</v>
+        <v>25675</v>
       </c>
       <c r="M108" s="11">
-        <v>25675</v>
+        <v>8184</v>
       </c>
       <c r="N108" s="11">
-        <v>8184</v>
-      </c>
-    </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20114</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>39</v>
       </c>
@@ -4294,37 +4294,37 @@
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9">
-        <v>2245</v>
+        <v>10975</v>
       </c>
       <c r="F109" s="9">
-        <v>10975</v>
+        <v>12346</v>
       </c>
       <c r="G109" s="9">
-        <v>12346</v>
+        <v>4733</v>
       </c>
       <c r="H109" s="9">
-        <v>4733</v>
-      </c>
-      <c r="I109" s="9">
         <v>5030</v>
       </c>
-      <c r="J109" s="9" t="s">
-        <v>15</v>
+      <c r="I109" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="9">
+        <v>9393</v>
       </c>
       <c r="K109" s="9">
-        <v>9393</v>
+        <v>12387</v>
       </c>
       <c r="L109" s="9">
-        <v>12387</v>
+        <v>13636</v>
       </c>
       <c r="M109" s="9">
-        <v>13636</v>
+        <v>14358</v>
       </c>
       <c r="N109" s="9">
-        <v>14358</v>
-      </c>
-    </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+        <v>111816</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>40</v>
       </c>
@@ -4333,74 +4333,74 @@
       </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11">
-        <v>47778</v>
+        <v>68524</v>
       </c>
       <c r="F110" s="11">
-        <v>68524</v>
+        <v>47904</v>
       </c>
       <c r="G110" s="11">
-        <v>47904</v>
+        <v>61177</v>
       </c>
       <c r="H110" s="11">
-        <v>61177</v>
-      </c>
-      <c r="I110" s="11">
         <v>83841</v>
       </c>
-      <c r="J110" s="11" t="s">
-        <v>15</v>
+      <c r="I110" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" s="11">
+        <v>721121</v>
       </c>
       <c r="K110" s="11">
-        <v>721121</v>
+        <v>134957</v>
       </c>
       <c r="L110" s="11">
-        <v>134957</v>
+        <v>222676</v>
       </c>
       <c r="M110" s="11">
-        <v>222676</v>
+        <v>239223</v>
       </c>
       <c r="N110" s="11">
-        <v>239223</v>
-      </c>
-    </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+        <v>193508</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C111" s="15"/>
       <c r="D111" s="15"/>
       <c r="E111" s="15">
-        <v>157716</v>
+        <v>337803</v>
       </c>
       <c r="F111" s="15">
-        <v>337803</v>
+        <v>330401</v>
       </c>
       <c r="G111" s="15">
-        <v>330401</v>
+        <v>414570</v>
       </c>
       <c r="H111" s="15">
-        <v>414570</v>
+        <v>519661</v>
       </c>
       <c r="I111" s="15">
-        <v>519661</v>
+        <v>0</v>
       </c>
       <c r="J111" s="15">
-        <v>0</v>
+        <v>1009169</v>
       </c>
       <c r="K111" s="15">
-        <v>1009169</v>
+        <v>789313</v>
       </c>
       <c r="L111" s="15">
-        <v>789313</v>
+        <v>974191</v>
       </c>
       <c r="M111" s="15">
-        <v>974191</v>
+        <v>1090186</v>
       </c>
       <c r="N111" s="15">
-        <v>1090186</v>
-      </c>
-    </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1563585</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4415,7 +4415,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4430,7 +4430,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4445,7 +4445,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>48</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4497,7 +4497,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>28</v>
       </c>
@@ -4506,37 +4506,37 @@
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
-        <v>9636</v>
+        <v>24631</v>
       </c>
       <c r="F117" s="9">
-        <v>24631</v>
+        <v>47720</v>
       </c>
       <c r="G117" s="9">
-        <v>47720</v>
+        <v>23468</v>
       </c>
       <c r="H117" s="9">
-        <v>23468</v>
-      </c>
-      <c r="I117" s="9">
         <v>29156</v>
       </c>
-      <c r="J117" s="9" t="s">
-        <v>15</v>
+      <c r="I117" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="9">
+        <v>32157</v>
       </c>
       <c r="K117" s="9">
-        <v>32157</v>
+        <v>45446</v>
       </c>
       <c r="L117" s="9">
-        <v>45446</v>
+        <v>38017</v>
       </c>
       <c r="M117" s="9">
-        <v>38017</v>
+        <v>49736</v>
       </c>
       <c r="N117" s="9">
-        <v>49736</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>65198</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>30</v>
       </c>
@@ -4547,35 +4547,35 @@
       <c r="E118" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>15</v>
+      <c r="F118" s="11">
+        <v>121111</v>
       </c>
       <c r="G118" s="11">
-        <v>121111</v>
+        <v>32752</v>
       </c>
       <c r="H118" s="11">
-        <v>32752</v>
-      </c>
-      <c r="I118" s="11">
         <v>38117</v>
       </c>
-      <c r="J118" s="11" t="s">
-        <v>15</v>
+      <c r="I118" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="11">
+        <v>51797</v>
       </c>
       <c r="K118" s="11">
-        <v>51797</v>
+        <v>55100</v>
       </c>
       <c r="L118" s="11">
-        <v>55100</v>
+        <v>58114</v>
       </c>
       <c r="M118" s="11">
-        <v>58114</v>
+        <v>84368</v>
       </c>
       <c r="N118" s="11">
-        <v>84368</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>125309</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>31</v>
       </c>
@@ -4586,35 +4586,35 @@
       <c r="E119" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F119" s="9" t="s">
-        <v>15</v>
+      <c r="F119" s="9">
+        <v>83333</v>
       </c>
       <c r="G119" s="9">
-        <v>83333</v>
+        <v>33924</v>
       </c>
       <c r="H119" s="9">
-        <v>33924</v>
-      </c>
-      <c r="I119" s="9">
         <v>46920</v>
       </c>
-      <c r="J119" s="9" t="s">
-        <v>15</v>
+      <c r="I119" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" s="9">
+        <v>95163</v>
       </c>
       <c r="K119" s="9">
-        <v>95163</v>
+        <v>94917</v>
       </c>
       <c r="L119" s="9">
-        <v>94917</v>
+        <v>130425</v>
       </c>
       <c r="M119" s="9">
-        <v>130425</v>
+        <v>125364</v>
       </c>
       <c r="N119" s="9">
-        <v>125364</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>146108</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>32</v>
       </c>
@@ -4623,37 +4623,37 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>82879</v>
+        <v>17342</v>
       </c>
       <c r="F120" s="11">
-        <v>17342</v>
+        <v>26330</v>
       </c>
       <c r="G120" s="11">
-        <v>26330</v>
+        <v>148980</v>
       </c>
       <c r="H120" s="11">
-        <v>148980</v>
-      </c>
-      <c r="I120" s="11">
         <v>248317</v>
       </c>
-      <c r="J120" s="11" t="s">
-        <v>15</v>
+      <c r="I120" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" s="11">
+        <v>970</v>
       </c>
       <c r="K120" s="11">
-        <v>970</v>
+        <v>211955</v>
       </c>
       <c r="L120" s="11">
-        <v>211955</v>
+        <v>393664</v>
       </c>
       <c r="M120" s="11">
-        <v>393664</v>
+        <v>49058</v>
       </c>
       <c r="N120" s="11">
-        <v>49058</v>
-      </c>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>33</v>
       </c>
@@ -4662,37 +4662,37 @@
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9">
-        <v>171276</v>
+        <v>46601</v>
       </c>
       <c r="F121" s="9">
-        <v>46601</v>
+        <v>84892</v>
       </c>
       <c r="G121" s="9">
-        <v>84892</v>
+        <v>163636</v>
       </c>
       <c r="H121" s="9">
-        <v>163636</v>
-      </c>
-      <c r="I121" s="9">
         <v>166980</v>
       </c>
-      <c r="J121" s="9" t="s">
-        <v>15</v>
+      <c r="I121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" s="9">
+        <v>715700</v>
       </c>
       <c r="K121" s="9">
-        <v>715700</v>
+        <v>134367</v>
       </c>
       <c r="L121" s="9">
-        <v>134367</v>
+        <v>273048</v>
       </c>
       <c r="M121" s="9">
-        <v>273048</v>
+        <v>512188</v>
       </c>
       <c r="N121" s="9">
-        <v>512188</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11353</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>34</v>
       </c>
@@ -4701,37 +4701,37 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>23827</v>
+        <v>31800</v>
       </c>
       <c r="F122" s="11">
-        <v>31800</v>
+        <v>11258</v>
       </c>
       <c r="G122" s="11">
-        <v>11258</v>
+        <v>22244</v>
       </c>
       <c r="H122" s="11">
-        <v>22244</v>
-      </c>
-      <c r="I122" s="11">
         <v>51884</v>
       </c>
-      <c r="J122" s="11" t="s">
-        <v>15</v>
+      <c r="I122" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" s="11">
+        <v>36566</v>
       </c>
       <c r="K122" s="11">
-        <v>36566</v>
+        <v>60306</v>
       </c>
       <c r="L122" s="11">
-        <v>60306</v>
+        <v>31335</v>
       </c>
       <c r="M122" s="11">
-        <v>31335</v>
+        <v>111185</v>
       </c>
       <c r="N122" s="11">
-        <v>111185</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="8" t="s">
         <v>35</v>
       </c>
@@ -4740,37 +4740,37 @@
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9">
-        <v>9336</v>
+        <v>97025</v>
       </c>
       <c r="F123" s="9">
-        <v>97025</v>
+        <v>80277</v>
       </c>
       <c r="G123" s="9">
-        <v>80277</v>
+        <v>68917</v>
       </c>
       <c r="H123" s="9">
-        <v>68917</v>
-      </c>
-      <c r="I123" s="9">
         <v>65728</v>
       </c>
-      <c r="J123" s="9" t="s">
-        <v>15</v>
+      <c r="I123" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" s="9">
+        <v>174546</v>
       </c>
       <c r="K123" s="9">
-        <v>174546</v>
+        <v>253786</v>
       </c>
       <c r="L123" s="9">
-        <v>253786</v>
+        <v>177353</v>
       </c>
       <c r="M123" s="9">
-        <v>177353</v>
+        <v>314307</v>
       </c>
       <c r="N123" s="9">
-        <v>314307</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>214640</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>36</v>
       </c>
@@ -4781,35 +4781,35 @@
       <c r="E124" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F124" s="11" t="s">
-        <v>15</v>
+      <c r="F124" s="11">
+        <v>94361</v>
       </c>
       <c r="G124" s="11">
-        <v>94361</v>
+        <v>0</v>
       </c>
       <c r="H124" s="11">
         <v>0</v>
       </c>
-      <c r="I124" s="11">
-        <v>0</v>
-      </c>
-      <c r="J124" s="11" t="s">
-        <v>15</v>
+      <c r="I124" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" s="11">
+        <v>50154</v>
       </c>
       <c r="K124" s="11">
-        <v>50154</v>
+        <v>59512</v>
       </c>
       <c r="L124" s="11">
-        <v>59512</v>
+        <v>9499</v>
       </c>
       <c r="M124" s="11">
-        <v>9499</v>
+        <v>65302</v>
       </c>
       <c r="N124" s="11">
-        <v>65302</v>
-      </c>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57508</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="8" t="s">
         <v>37</v>
       </c>
@@ -4818,37 +4818,37 @@
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9">
-        <v>11671</v>
+        <v>31203</v>
       </c>
       <c r="F125" s="9">
-        <v>31203</v>
+        <v>43382</v>
       </c>
       <c r="G125" s="9">
-        <v>43382</v>
+        <v>44562</v>
       </c>
       <c r="H125" s="9">
-        <v>44562</v>
-      </c>
-      <c r="I125" s="9">
         <v>48614</v>
       </c>
-      <c r="J125" s="9" t="s">
-        <v>15</v>
+      <c r="I125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="9">
+        <v>67632</v>
       </c>
       <c r="K125" s="9">
-        <v>67632</v>
+        <v>87534</v>
       </c>
       <c r="L125" s="9">
-        <v>87534</v>
+        <v>81179</v>
       </c>
       <c r="M125" s="9">
-        <v>81179</v>
+        <v>148327</v>
       </c>
       <c r="N125" s="9">
-        <v>148327</v>
-      </c>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+        <v>126934</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>38</v>
       </c>
@@ -4857,37 +4857,37 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>23335</v>
+        <v>6205</v>
       </c>
       <c r="F126" s="11">
-        <v>6205</v>
+        <v>18657</v>
       </c>
       <c r="G126" s="11">
-        <v>18657</v>
+        <v>18492</v>
       </c>
       <c r="H126" s="11">
-        <v>18492</v>
-      </c>
-      <c r="I126" s="11">
         <v>0</v>
       </c>
-      <c r="J126" s="11" t="s">
-        <v>15</v>
+      <c r="I126" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="11">
+        <v>29593</v>
       </c>
       <c r="K126" s="11">
-        <v>29593</v>
+        <v>59149</v>
       </c>
       <c r="L126" s="11">
-        <v>59149</v>
+        <v>-52152</v>
       </c>
       <c r="M126" s="11">
-        <v>-52152</v>
+        <v>149952</v>
       </c>
       <c r="N126" s="11">
-        <v>149952</v>
-      </c>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67799</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>39</v>
       </c>
@@ -4896,37 +4896,37 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>23309</v>
+        <v>39696</v>
       </c>
       <c r="F127" s="9">
-        <v>39696</v>
+        <v>22476</v>
       </c>
       <c r="G127" s="9">
-        <v>22476</v>
+        <v>33327</v>
       </c>
       <c r="H127" s="9">
-        <v>33327</v>
-      </c>
-      <c r="I127" s="9">
         <v>43181</v>
       </c>
-      <c r="J127" s="9" t="s">
-        <v>15</v>
+      <c r="I127" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" s="9">
+        <v>44866</v>
       </c>
       <c r="K127" s="9">
-        <v>44866</v>
+        <v>59329</v>
       </c>
       <c r="L127" s="9">
-        <v>59329</v>
+        <v>133298</v>
       </c>
       <c r="M127" s="9">
-        <v>133298</v>
+        <v>303757</v>
       </c>
       <c r="N127" s="9">
-        <v>303757</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>191099</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>40</v>
       </c>
@@ -4935,74 +4935,74 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>108539</v>
+        <v>89710</v>
       </c>
       <c r="F128" s="11">
-        <v>89710</v>
+        <v>-51629</v>
       </c>
       <c r="G128" s="11">
-        <v>-51629</v>
+        <v>91189</v>
       </c>
       <c r="H128" s="11">
-        <v>91189</v>
-      </c>
-      <c r="I128" s="11">
         <v>64856</v>
       </c>
-      <c r="J128" s="11" t="s">
-        <v>15</v>
+      <c r="I128" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="11">
+        <v>-768477</v>
       </c>
       <c r="K128" s="11">
-        <v>-768477</v>
+        <v>147738</v>
       </c>
       <c r="L128" s="11">
-        <v>147738</v>
+        <v>322843</v>
       </c>
       <c r="M128" s="11">
-        <v>322843</v>
+        <v>129970</v>
       </c>
       <c r="N128" s="11">
-        <v>129970</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>453862</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15">
-        <v>463808</v>
+        <v>384213</v>
       </c>
       <c r="F129" s="15">
-        <v>384213</v>
+        <v>582168</v>
       </c>
       <c r="G129" s="15">
-        <v>582168</v>
+        <v>681491</v>
       </c>
       <c r="H129" s="15">
-        <v>681491</v>
+        <v>803753</v>
       </c>
       <c r="I129" s="15">
-        <v>803753</v>
+        <v>0</v>
       </c>
       <c r="J129" s="15">
-        <v>0</v>
+        <v>530667</v>
       </c>
       <c r="K129" s="15">
-        <v>530667</v>
+        <v>1269139</v>
       </c>
       <c r="L129" s="15">
-        <v>1269139</v>
+        <v>1596623</v>
       </c>
       <c r="M129" s="15">
-        <v>1596623</v>
+        <v>2043514</v>
       </c>
       <c r="N129" s="15">
-        <v>2043514</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1469427</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -5017,7 +5017,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
     </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -5032,7 +5032,7 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -5047,7 +5047,7 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
     </row>
-    <row r="133" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B133" s="7" t="s">
         <v>49</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -5099,7 +5099,7 @@
       <c r="M134" s="1"/>
       <c r="N134" s="1"/>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="8" t="s">
         <v>28</v>
       </c>
@@ -5108,37 +5108,37 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9">
-        <v>10184</v>
+        <v>21967</v>
       </c>
       <c r="F135" s="9">
-        <v>21967</v>
+        <v>35643</v>
       </c>
       <c r="G135" s="9">
-        <v>35643</v>
+        <v>40180</v>
       </c>
       <c r="H135" s="9">
-        <v>40180</v>
-      </c>
-      <c r="I135" s="9">
         <v>25920</v>
       </c>
-      <c r="J135" s="9" t="s">
-        <v>15</v>
+      <c r="I135" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="9">
+        <v>25297</v>
       </c>
       <c r="K135" s="9">
-        <v>25297</v>
+        <v>39768</v>
       </c>
       <c r="L135" s="9">
-        <v>39768</v>
+        <v>49491</v>
       </c>
       <c r="M135" s="9">
-        <v>49491</v>
+        <v>48021</v>
       </c>
       <c r="N135" s="9">
-        <v>48021</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>46746</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>30</v>
       </c>
@@ -5149,35 +5149,35 @@
       <c r="E136" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F136" s="11" t="s">
-        <v>15</v>
+      <c r="F136" s="11">
+        <v>108658</v>
       </c>
       <c r="G136" s="11">
-        <v>108658</v>
+        <v>43195</v>
       </c>
       <c r="H136" s="11">
-        <v>43195</v>
-      </c>
-      <c r="I136" s="11">
         <v>40294</v>
       </c>
-      <c r="J136" s="11" t="s">
-        <v>15</v>
+      <c r="I136" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="11">
+        <v>43256</v>
       </c>
       <c r="K136" s="11">
-        <v>43256</v>
+        <v>61067</v>
       </c>
       <c r="L136" s="11">
-        <v>61067</v>
+        <v>60684</v>
       </c>
       <c r="M136" s="11">
-        <v>60684</v>
+        <v>70503</v>
       </c>
       <c r="N136" s="11">
-        <v>70503</v>
-      </c>
-    </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119612</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>31</v>
       </c>
@@ -5188,35 +5188,35 @@
       <c r="E137" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F137" s="9" t="s">
-        <v>15</v>
+      <c r="F137" s="9">
+        <v>82107</v>
       </c>
       <c r="G137" s="9">
-        <v>82107</v>
+        <v>36748</v>
       </c>
       <c r="H137" s="9">
-        <v>36748</v>
-      </c>
-      <c r="I137" s="9">
         <v>47952</v>
       </c>
-      <c r="J137" s="9" t="s">
-        <v>15</v>
+      <c r="I137" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="9">
+        <v>80792</v>
       </c>
       <c r="K137" s="9">
-        <v>80792</v>
+        <v>97767</v>
       </c>
       <c r="L137" s="9">
-        <v>97767</v>
+        <v>128586</v>
       </c>
       <c r="M137" s="9">
-        <v>128586</v>
+        <v>100725</v>
       </c>
       <c r="N137" s="9">
-        <v>100725</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>137392</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>32</v>
       </c>
@@ -5225,37 +5225,37 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11">
-        <v>38338</v>
+        <v>44032</v>
       </c>
       <c r="F138" s="11">
-        <v>44032</v>
+        <v>41816</v>
       </c>
       <c r="G138" s="11">
-        <v>41816</v>
+        <v>67219</v>
       </c>
       <c r="H138" s="11">
-        <v>67219</v>
-      </c>
-      <c r="I138" s="11">
         <v>98558</v>
       </c>
-      <c r="J138" s="11" t="s">
-        <v>15</v>
+      <c r="I138" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="11">
+        <v>86421</v>
       </c>
       <c r="K138" s="11">
-        <v>86421</v>
+        <v>105214</v>
       </c>
       <c r="L138" s="11">
-        <v>105214</v>
+        <v>235586</v>
       </c>
       <c r="M138" s="11">
-        <v>235586</v>
+        <v>133809</v>
       </c>
       <c r="N138" s="11">
-        <v>133809</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>157307</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>33</v>
       </c>
@@ -5264,37 +5264,37 @@
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9">
-        <v>58043</v>
+        <v>69128</v>
       </c>
       <c r="F139" s="9">
-        <v>69128</v>
+        <v>76293</v>
       </c>
       <c r="G139" s="9">
-        <v>76293</v>
+        <v>98533</v>
       </c>
       <c r="H139" s="9">
-        <v>98533</v>
-      </c>
-      <c r="I139" s="9">
         <v>127209</v>
       </c>
-      <c r="J139" s="9" t="s">
-        <v>15</v>
+      <c r="I139" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="9">
+        <v>486851</v>
       </c>
       <c r="K139" s="9">
-        <v>486851</v>
+        <v>199253</v>
       </c>
       <c r="L139" s="9">
-        <v>199253</v>
+        <v>216528</v>
       </c>
       <c r="M139" s="9">
-        <v>216528</v>
+        <v>220576</v>
       </c>
       <c r="N139" s="9">
-        <v>220576</v>
-      </c>
-    </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+        <v>334925</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>34</v>
       </c>
@@ -5303,37 +5303,37 @@
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11">
-        <v>6897</v>
+        <v>14646</v>
       </c>
       <c r="F140" s="11">
-        <v>14646</v>
+        <v>17988</v>
       </c>
       <c r="G140" s="11">
-        <v>17988</v>
+        <v>23562</v>
       </c>
       <c r="H140" s="11">
-        <v>23562</v>
-      </c>
-      <c r="I140" s="11">
         <v>38200</v>
       </c>
-      <c r="J140" s="11" t="s">
-        <v>15</v>
+      <c r="I140" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" s="11">
+        <v>44215</v>
       </c>
       <c r="K140" s="11">
-        <v>44215</v>
+        <v>45649</v>
       </c>
       <c r="L140" s="11">
-        <v>45649</v>
+        <v>40279</v>
       </c>
       <c r="M140" s="11">
-        <v>40279</v>
+        <v>42067</v>
       </c>
       <c r="N140" s="11">
-        <v>42067</v>
-      </c>
-    </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68817</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>35</v>
       </c>
@@ -5342,37 +5342,37 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>38299</v>
+        <v>48426</v>
       </c>
       <c r="F141" s="9">
-        <v>48426</v>
+        <v>100925</v>
       </c>
       <c r="G141" s="9">
-        <v>100925</v>
+        <v>82275</v>
       </c>
       <c r="H141" s="9">
-        <v>82275</v>
-      </c>
-      <c r="I141" s="9">
         <v>70358</v>
       </c>
-      <c r="J141" s="9" t="s">
-        <v>15</v>
+      <c r="I141" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="9">
+        <v>154782</v>
       </c>
       <c r="K141" s="9">
-        <v>154782</v>
+        <v>231069</v>
       </c>
       <c r="L141" s="9">
-        <v>231069</v>
+        <v>220079</v>
       </c>
       <c r="M141" s="9">
-        <v>220079</v>
+        <v>260459</v>
       </c>
       <c r="N141" s="9">
-        <v>260459</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>201254</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>36</v>
       </c>
@@ -5383,35 +5383,35 @@
       <c r="E142" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F142" s="11" t="s">
-        <v>15</v>
+      <c r="F142" s="11">
+        <v>57486</v>
       </c>
       <c r="G142" s="11">
-        <v>57486</v>
+        <v>29029</v>
       </c>
       <c r="H142" s="11">
-        <v>29029</v>
-      </c>
-      <c r="I142" s="11">
         <v>21051</v>
       </c>
-      <c r="J142" s="11" t="s">
-        <v>15</v>
+      <c r="I142" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="11">
+        <v>30263</v>
       </c>
       <c r="K142" s="11">
-        <v>30263</v>
+        <v>36840</v>
       </c>
       <c r="L142" s="11">
-        <v>36840</v>
+        <v>41867</v>
       </c>
       <c r="M142" s="11">
-        <v>41867</v>
+        <v>38246</v>
       </c>
       <c r="N142" s="11">
-        <v>38246</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>65731</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>37</v>
       </c>
@@ -5420,37 +5420,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>16219</v>
+        <v>28407</v>
       </c>
       <c r="F143" s="9">
-        <v>28407</v>
+        <v>32750</v>
       </c>
       <c r="G143" s="9">
-        <v>32750</v>
+        <v>44938</v>
       </c>
       <c r="H143" s="9">
-        <v>44938</v>
-      </c>
-      <c r="I143" s="9">
         <v>38396</v>
       </c>
-      <c r="J143" s="9" t="s">
-        <v>15</v>
+      <c r="I143" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" s="9">
+        <v>51158</v>
       </c>
       <c r="K143" s="9">
-        <v>51158</v>
+        <v>103392</v>
       </c>
       <c r="L143" s="9">
-        <v>103392</v>
+        <v>73450</v>
       </c>
       <c r="M143" s="9">
-        <v>73450</v>
+        <v>145483</v>
       </c>
       <c r="N143" s="9">
-        <v>145483</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>123750</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>38</v>
       </c>
@@ -5459,37 +5459,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>13369</v>
+        <v>16354</v>
       </c>
       <c r="F144" s="11">
-        <v>16354</v>
+        <v>11596</v>
       </c>
       <c r="G144" s="11">
-        <v>11596</v>
+        <v>9166</v>
       </c>
       <c r="H144" s="11">
-        <v>9166</v>
-      </c>
-      <c r="I144" s="11">
         <v>14590</v>
       </c>
-      <c r="J144" s="11" t="s">
-        <v>15</v>
+      <c r="I144" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" s="11">
+        <v>19516</v>
       </c>
       <c r="K144" s="11">
-        <v>19516</v>
+        <v>46143</v>
       </c>
       <c r="L144" s="11">
-        <v>46143</v>
+        <v>-34824</v>
       </c>
       <c r="M144" s="11">
-        <v>-34824</v>
+        <v>138134</v>
       </c>
       <c r="N144" s="11">
-        <v>138134</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68513</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>39</v>
       </c>
@@ -5498,37 +5498,37 @@
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>14579</v>
+        <v>38325</v>
       </c>
       <c r="F145" s="9">
-        <v>38325</v>
+        <v>30088</v>
       </c>
       <c r="G145" s="9">
-        <v>30088</v>
+        <v>33030</v>
       </c>
       <c r="H145" s="9">
-        <v>33030</v>
-      </c>
-      <c r="I145" s="9">
         <v>39346</v>
       </c>
-      <c r="J145" s="9" t="s">
-        <v>15</v>
+      <c r="I145" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="9">
+        <v>41887</v>
       </c>
       <c r="K145" s="9">
-        <v>41887</v>
+        <v>58080</v>
       </c>
       <c r="L145" s="9">
-        <v>58080</v>
+        <v>132104</v>
       </c>
       <c r="M145" s="9">
-        <v>132104</v>
+        <v>206757</v>
       </c>
       <c r="N145" s="9">
-        <v>206757</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>291415</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>40</v>
       </c>
@@ -5537,74 +5537,74 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11">
-        <v>87794</v>
+        <v>110330</v>
       </c>
       <c r="F146" s="11">
-        <v>110330</v>
+        <v>-97351</v>
       </c>
       <c r="G146" s="11">
-        <v>-97351</v>
+        <v>68525</v>
       </c>
       <c r="H146" s="11">
-        <v>68525</v>
-      </c>
-      <c r="I146" s="11">
         <v>67112</v>
       </c>
-      <c r="J146" s="11" t="s">
-        <v>15</v>
+      <c r="I146" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="11">
+        <v>-263822</v>
       </c>
       <c r="K146" s="11">
-        <v>-263822</v>
+        <v>60019</v>
       </c>
       <c r="L146" s="11">
-        <v>60019</v>
+        <v>316798</v>
       </c>
       <c r="M146" s="11">
-        <v>316798</v>
+        <v>165335</v>
       </c>
       <c r="N146" s="11">
-        <v>165335</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>344098</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15">
-        <v>283722</v>
+        <v>391615</v>
       </c>
       <c r="F147" s="15">
-        <v>391615</v>
+        <v>497999</v>
       </c>
       <c r="G147" s="15">
-        <v>497999</v>
+        <v>576400</v>
       </c>
       <c r="H147" s="15">
-        <v>576400</v>
+        <v>628986</v>
       </c>
       <c r="I147" s="15">
-        <v>628986</v>
+        <v>0</v>
       </c>
       <c r="J147" s="15">
-        <v>0</v>
+        <v>800616</v>
       </c>
       <c r="K147" s="15">
-        <v>800616</v>
+        <v>1084261</v>
       </c>
       <c r="L147" s="15">
-        <v>1084261</v>
+        <v>1480628</v>
       </c>
       <c r="M147" s="15">
-        <v>1480628</v>
+        <v>1570115</v>
       </c>
       <c r="N147" s="15">
-        <v>1570115</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1959560</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5619,7 +5619,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5634,7 +5634,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5649,7 +5649,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>50</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5701,7 +5701,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>28</v>
       </c>
@@ -5710,37 +5710,37 @@
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
-        <v>4505</v>
+        <v>7169</v>
       </c>
       <c r="F153" s="9">
-        <v>7169</v>
+        <v>19246</v>
       </c>
       <c r="G153" s="9">
-        <v>19246</v>
+        <v>2534</v>
       </c>
       <c r="H153" s="9">
-        <v>2534</v>
-      </c>
-      <c r="I153" s="9">
         <v>5770</v>
       </c>
-      <c r="J153" s="9" t="s">
-        <v>15</v>
+      <c r="I153" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="9">
+        <v>9503</v>
       </c>
       <c r="K153" s="9">
-        <v>9503</v>
+        <v>15191</v>
       </c>
       <c r="L153" s="9">
-        <v>15191</v>
+        <v>3706</v>
       </c>
       <c r="M153" s="9">
-        <v>3706</v>
+        <v>5422</v>
       </c>
       <c r="N153" s="9">
-        <v>5422</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23874</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>30</v>
       </c>
@@ -5751,35 +5751,35 @@
       <c r="E154" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F154" s="11" t="s">
-        <v>15</v>
+      <c r="F154" s="11">
+        <v>14391</v>
       </c>
       <c r="G154" s="11">
-        <v>14391</v>
+        <v>3948</v>
       </c>
       <c r="H154" s="11">
-        <v>3948</v>
-      </c>
-      <c r="I154" s="11">
         <v>1771</v>
       </c>
-      <c r="J154" s="11" t="s">
-        <v>15</v>
+      <c r="I154" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" s="11">
+        <v>12386</v>
       </c>
       <c r="K154" s="11">
-        <v>12386</v>
+        <v>6436</v>
       </c>
       <c r="L154" s="11">
-        <v>6436</v>
+        <v>3657</v>
       </c>
       <c r="M154" s="11">
-        <v>3657</v>
+        <v>17714</v>
       </c>
       <c r="N154" s="11">
-        <v>17714</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>23411</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>31</v>
       </c>
@@ -5790,35 +5790,35 @@
       <c r="E155" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F155" s="9" t="s">
-        <v>15</v>
+      <c r="F155" s="9">
+        <v>3184</v>
       </c>
       <c r="G155" s="9">
-        <v>3184</v>
+        <v>5781</v>
       </c>
       <c r="H155" s="9">
-        <v>5781</v>
-      </c>
-      <c r="I155" s="9">
         <v>4749</v>
       </c>
-      <c r="J155" s="9" t="s">
-        <v>15</v>
+      <c r="I155" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" s="9">
+        <v>16817</v>
       </c>
       <c r="K155" s="9">
-        <v>16817</v>
+        <v>14040</v>
       </c>
       <c r="L155" s="9">
-        <v>14040</v>
+        <v>15544</v>
       </c>
       <c r="M155" s="9">
-        <v>15544</v>
+        <v>40446</v>
       </c>
       <c r="N155" s="9">
-        <v>40446</v>
-      </c>
-    </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49162</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>32</v>
       </c>
@@ -5827,37 +5827,37 @@
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>70328</v>
+        <v>43638</v>
       </c>
       <c r="F156" s="11">
-        <v>43638</v>
+        <v>28152</v>
       </c>
       <c r="G156" s="11">
-        <v>28152</v>
+        <v>109913</v>
       </c>
       <c r="H156" s="11">
-        <v>109913</v>
-      </c>
-      <c r="I156" s="11">
         <v>262989</v>
       </c>
-      <c r="J156" s="11" t="s">
-        <v>15</v>
+      <c r="I156" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="11">
+        <v>118052</v>
       </c>
       <c r="K156" s="11">
-        <v>118052</v>
+        <v>224814</v>
       </c>
       <c r="L156" s="11">
-        <v>224814</v>
+        <v>382779</v>
       </c>
       <c r="M156" s="11">
-        <v>382779</v>
+        <v>298121</v>
       </c>
       <c r="N156" s="11">
-        <v>298121</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>145435</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>33</v>
       </c>
@@ -5866,37 +5866,37 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>145379</v>
+        <v>122852</v>
       </c>
       <c r="F157" s="9">
-        <v>122852</v>
+        <v>131451</v>
       </c>
       <c r="G157" s="9">
-        <v>131451</v>
+        <v>196554</v>
       </c>
       <c r="H157" s="9">
-        <v>196554</v>
-      </c>
-      <c r="I157" s="9">
         <v>237571</v>
       </c>
-      <c r="J157" s="9" t="s">
-        <v>15</v>
+      <c r="I157" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" s="9">
+        <v>360300</v>
       </c>
       <c r="K157" s="9">
-        <v>360300</v>
+        <v>295407</v>
       </c>
       <c r="L157" s="9">
-        <v>295407</v>
+        <v>343547</v>
       </c>
       <c r="M157" s="9">
-        <v>343547</v>
+        <v>643542</v>
       </c>
       <c r="N157" s="9">
-        <v>643542</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>319970</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>34</v>
       </c>
@@ -5905,37 +5905,37 @@
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>21419</v>
+        <v>38573</v>
       </c>
       <c r="F158" s="11">
-        <v>38573</v>
+        <v>31843</v>
       </c>
       <c r="G158" s="11">
-        <v>31843</v>
+        <v>30525</v>
       </c>
       <c r="H158" s="11">
-        <v>30525</v>
-      </c>
-      <c r="I158" s="11">
         <v>44209</v>
       </c>
-      <c r="J158" s="11" t="s">
-        <v>15</v>
+      <c r="I158" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="11">
+        <v>24139</v>
       </c>
       <c r="K158" s="11">
-        <v>24139</v>
+        <v>38786</v>
       </c>
       <c r="L158" s="11">
-        <v>38786</v>
+        <v>29525</v>
       </c>
       <c r="M158" s="11">
-        <v>29525</v>
+        <v>98970</v>
       </c>
       <c r="N158" s="11">
-        <v>98970</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35149</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>35</v>
       </c>
@@ -5944,37 +5944,37 @@
       </c>
       <c r="D159" s="9"/>
       <c r="E159" s="9">
-        <v>1238</v>
+        <v>49837</v>
       </c>
       <c r="F159" s="9">
-        <v>49837</v>
+        <v>29189</v>
       </c>
       <c r="G159" s="9">
-        <v>29189</v>
+        <v>15831</v>
       </c>
       <c r="H159" s="9">
-        <v>15831</v>
-      </c>
-      <c r="I159" s="9">
         <v>11201</v>
       </c>
-      <c r="J159" s="9" t="s">
-        <v>15</v>
+      <c r="I159" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="9">
+        <v>37270</v>
       </c>
       <c r="K159" s="9">
-        <v>37270</v>
+        <v>59969</v>
       </c>
       <c r="L159" s="9">
-        <v>59969</v>
+        <v>17111</v>
       </c>
       <c r="M159" s="9">
-        <v>17111</v>
+        <v>71109</v>
       </c>
       <c r="N159" s="9">
-        <v>71109</v>
-      </c>
-    </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+        <v>84495</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>36</v>
       </c>
@@ -5985,35 +5985,35 @@
       <c r="E160" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F160" s="11" t="s">
-        <v>15</v>
+      <c r="F160" s="11">
+        <v>60008</v>
       </c>
       <c r="G160" s="11">
-        <v>60008</v>
+        <v>30979</v>
       </c>
       <c r="H160" s="11">
-        <v>30979</v>
-      </c>
-      <c r="I160" s="11">
         <v>9928</v>
       </c>
-      <c r="J160" s="11" t="s">
-        <v>15</v>
+      <c r="I160" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="11">
+        <v>22183</v>
       </c>
       <c r="K160" s="11">
-        <v>22183</v>
+        <v>44853</v>
       </c>
       <c r="L160" s="11">
-        <v>44853</v>
+        <v>12436</v>
       </c>
       <c r="M160" s="11">
-        <v>12436</v>
+        <v>39543</v>
       </c>
       <c r="N160" s="11">
-        <v>39543</v>
-      </c>
-    </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+        <v>31320</v>
+      </c>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>37</v>
       </c>
@@ -6022,37 +6022,37 @@
       </c>
       <c r="D161" s="9"/>
       <c r="E161" s="9">
-        <v>2200</v>
+        <v>4996</v>
       </c>
       <c r="F161" s="9">
-        <v>4996</v>
+        <v>15628</v>
       </c>
       <c r="G161" s="9">
-        <v>15628</v>
+        <v>15252</v>
       </c>
       <c r="H161" s="9">
-        <v>15252</v>
-      </c>
-      <c r="I161" s="9">
         <v>25474</v>
       </c>
-      <c r="J161" s="9" t="s">
-        <v>15</v>
+      <c r="I161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="9">
+        <v>28565</v>
       </c>
       <c r="K161" s="9">
-        <v>28565</v>
+        <v>12708</v>
       </c>
       <c r="L161" s="9">
-        <v>12708</v>
+        <v>20116</v>
       </c>
       <c r="M161" s="9">
-        <v>20116</v>
+        <v>23280</v>
       </c>
       <c r="N161" s="9">
-        <v>23280</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26464</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>38</v>
       </c>
@@ -6061,37 +6061,37 @@
       </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11">
-        <v>13235</v>
+        <v>3086</v>
       </c>
       <c r="F162" s="11">
-        <v>3086</v>
+        <v>10147</v>
       </c>
       <c r="G162" s="11">
-        <v>10147</v>
+        <v>19473</v>
       </c>
       <c r="H162" s="11">
-        <v>19473</v>
-      </c>
-      <c r="I162" s="11">
         <v>4883</v>
       </c>
-      <c r="J162" s="11" t="s">
-        <v>15</v>
+      <c r="I162" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="11">
+        <v>12618</v>
       </c>
       <c r="K162" s="11">
-        <v>12618</v>
+        <v>25675</v>
       </c>
       <c r="L162" s="11">
-        <v>25675</v>
+        <v>8184</v>
       </c>
       <c r="M162" s="11">
-        <v>8184</v>
+        <v>20114</v>
       </c>
       <c r="N162" s="11">
-        <v>20114</v>
-      </c>
-    </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19400</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>39</v>
       </c>
@@ -6100,37 +6100,37 @@
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9">
-        <v>10975</v>
+        <v>12346</v>
       </c>
       <c r="F163" s="9">
-        <v>12346</v>
+        <v>4734</v>
       </c>
       <c r="G163" s="9">
-        <v>4734</v>
+        <v>5030</v>
       </c>
       <c r="H163" s="9">
-        <v>5030</v>
-      </c>
-      <c r="I163" s="9">
         <v>8865</v>
       </c>
-      <c r="J163" s="9" t="s">
-        <v>15</v>
+      <c r="I163" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="9">
+        <v>12372</v>
       </c>
       <c r="K163" s="9">
-        <v>12372</v>
+        <v>13636</v>
       </c>
       <c r="L163" s="9">
-        <v>13636</v>
+        <v>14358</v>
       </c>
       <c r="M163" s="9">
-        <v>14358</v>
+        <v>111816</v>
       </c>
       <c r="N163" s="9">
-        <v>111816</v>
-      </c>
-    </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11500</v>
+      </c>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>40</v>
       </c>
@@ -6139,74 +6139,74 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>68524</v>
+        <v>47904</v>
       </c>
       <c r="F164" s="11">
-        <v>47904</v>
+        <v>66597</v>
       </c>
       <c r="G164" s="11">
-        <v>66597</v>
+        <v>83841</v>
       </c>
       <c r="H164" s="11">
-        <v>83841</v>
-      </c>
-      <c r="I164" s="11">
         <v>77018</v>
       </c>
-      <c r="J164" s="11" t="s">
-        <v>15</v>
+      <c r="I164" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="11">
+        <v>135108</v>
       </c>
       <c r="K164" s="11">
-        <v>135108</v>
+        <v>222676</v>
       </c>
       <c r="L164" s="11">
-        <v>222676</v>
+        <v>239223</v>
       </c>
       <c r="M164" s="11">
-        <v>239223</v>
+        <v>193508</v>
       </c>
       <c r="N164" s="11">
-        <v>193508</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>303271</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15">
-        <v>337803</v>
+        <v>330401</v>
       </c>
       <c r="F165" s="15">
-        <v>330401</v>
+        <v>414570</v>
       </c>
       <c r="G165" s="15">
-        <v>414570</v>
+        <v>519661</v>
       </c>
       <c r="H165" s="15">
-        <v>519661</v>
+        <v>694428</v>
       </c>
       <c r="I165" s="15">
-        <v>694428</v>
+        <v>0</v>
       </c>
       <c r="J165" s="15">
-        <v>0</v>
+        <v>789313</v>
       </c>
       <c r="K165" s="15">
-        <v>789313</v>
+        <v>974191</v>
       </c>
       <c r="L165" s="15">
-        <v>974191</v>
+        <v>1090186</v>
       </c>
       <c r="M165" s="15">
-        <v>1090186</v>
+        <v>1563585</v>
       </c>
       <c r="N165" s="15">
-        <v>1563585</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1073451</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -6221,7 +6221,7 @@
       <c r="M166" s="1"/>
       <c r="N166" s="1"/>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -6236,7 +6236,7 @@
       <c r="M167" s="1"/>
       <c r="N167" s="1"/>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -6251,7 +6251,7 @@
       <c r="M168" s="1"/>
       <c r="N168" s="1"/>
     </row>
-    <row r="169" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B169" s="7" t="s">
         <v>51</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -6303,7 +6303,7 @@
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
     </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="8" t="s">
         <v>28</v>
       </c>
@@ -6312,37 +6312,37 @@
       </c>
       <c r="D171" s="9"/>
       <c r="E171" s="9">
-        <v>42377</v>
+        <v>50618</v>
       </c>
       <c r="F171" s="9">
-        <v>50618</v>
+        <v>151818</v>
       </c>
       <c r="G171" s="9">
-        <v>151818</v>
+        <v>155210</v>
       </c>
       <c r="H171" s="9">
-        <v>155210</v>
-      </c>
-      <c r="I171" s="9">
         <v>139101</v>
       </c>
-      <c r="J171" s="9" t="s">
-        <v>15</v>
+      <c r="I171" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="9">
+        <v>135671</v>
       </c>
       <c r="K171" s="9">
-        <v>135671</v>
+        <v>137870</v>
       </c>
       <c r="L171" s="9">
-        <v>137870</v>
+        <v>245016</v>
       </c>
       <c r="M171" s="9">
-        <v>245016</v>
+        <v>264714286</v>
       </c>
       <c r="N171" s="9">
-        <v>264714286</v>
-      </c>
-    </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+        <v>271073</v>
+      </c>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>30</v>
       </c>
@@ -6356,32 +6356,32 @@
       <c r="F172" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G172" s="11" t="s">
-        <v>15</v>
+      <c r="G172" s="11">
+        <v>107396</v>
       </c>
       <c r="H172" s="11">
-        <v>107396</v>
-      </c>
-      <c r="I172" s="11">
         <v>103794</v>
       </c>
-      <c r="J172" s="11" t="s">
-        <v>15</v>
+      <c r="I172" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="11">
+        <v>104217</v>
       </c>
       <c r="K172" s="11">
-        <v>104217</v>
+        <v>129198</v>
       </c>
       <c r="L172" s="11">
-        <v>129198</v>
+        <v>165026</v>
       </c>
       <c r="M172" s="11">
-        <v>165026</v>
+        <v>174142857</v>
       </c>
       <c r="N172" s="11">
-        <v>174142857</v>
-      </c>
-    </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+        <v>177880</v>
+      </c>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="8" t="s">
         <v>31</v>
       </c>
@@ -6395,32 +6395,32 @@
       <c r="F173" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G173" s="9" t="s">
-        <v>15</v>
+      <c r="G173" s="9">
+        <v>409762</v>
       </c>
       <c r="H173" s="9">
-        <v>409762</v>
-      </c>
-      <c r="I173" s="9">
         <v>1137992</v>
       </c>
-      <c r="J173" s="9" t="s">
-        <v>15</v>
+      <c r="I173" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="9">
+        <v>271055</v>
       </c>
       <c r="K173" s="9">
-        <v>271055</v>
+        <v>375333</v>
       </c>
       <c r="L173" s="9">
-        <v>375333</v>
+        <v>610435</v>
       </c>
       <c r="M173" s="9">
-        <v>610435</v>
+        <v>647666667</v>
       </c>
       <c r="N173" s="9">
-        <v>647666667</v>
-      </c>
-    </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+        <v>634756</v>
+      </c>
+    </row>
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>32</v>
       </c>
@@ -6429,37 +6429,37 @@
       </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11">
-        <v>21383</v>
+        <v>25307</v>
       </c>
       <c r="F174" s="11">
-        <v>25307</v>
+        <v>26309</v>
       </c>
       <c r="G174" s="11">
-        <v>26309</v>
+        <v>30600</v>
       </c>
       <c r="H174" s="11">
-        <v>30600</v>
-      </c>
-      <c r="I174" s="11">
         <v>45453</v>
       </c>
-      <c r="J174" s="11" t="s">
-        <v>15</v>
+      <c r="I174" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" s="11">
+        <v>49698</v>
       </c>
       <c r="K174" s="11">
-        <v>49698</v>
+        <v>49694</v>
       </c>
       <c r="L174" s="11">
-        <v>49694</v>
+        <v>63186</v>
       </c>
       <c r="M174" s="11">
-        <v>63186</v>
+        <v>67772486</v>
       </c>
       <c r="N174" s="11">
-        <v>67772486</v>
-      </c>
-    </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67577</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="8" t="s">
         <v>33</v>
       </c>
@@ -6468,37 +6468,37 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9">
-        <v>5013</v>
+        <v>6148</v>
       </c>
       <c r="F175" s="9">
-        <v>6148</v>
+        <v>6334</v>
       </c>
       <c r="G175" s="9">
-        <v>6334</v>
+        <v>7612</v>
       </c>
       <c r="H175" s="9">
-        <v>7612</v>
-      </c>
-      <c r="I175" s="9">
         <v>11337</v>
       </c>
+      <c r="I175" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J175" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K175" s="9" t="s">
-        <v>15</v>
+      <c r="K175" s="9">
+        <v>14469</v>
       </c>
       <c r="L175" s="9">
-        <v>14469</v>
+        <v>17047</v>
       </c>
       <c r="M175" s="9">
-        <v>17047</v>
+        <v>16494479</v>
       </c>
       <c r="N175" s="9">
-        <v>16494479</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16381</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="10" t="s">
         <v>34</v>
       </c>
@@ -6507,37 +6507,37 @@
       </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11">
-        <v>25572</v>
+        <v>27817</v>
       </c>
       <c r="F176" s="11">
-        <v>27817</v>
+        <v>29671</v>
       </c>
       <c r="G176" s="11">
-        <v>29671</v>
+        <v>31280</v>
       </c>
       <c r="H176" s="11">
-        <v>31280</v>
-      </c>
-      <c r="I176" s="11">
         <v>38283</v>
       </c>
-      <c r="J176" s="11" t="s">
-        <v>15</v>
+      <c r="I176" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="11">
+        <v>48822</v>
       </c>
       <c r="K176" s="11">
-        <v>48822</v>
+        <v>57450</v>
       </c>
       <c r="L176" s="11">
-        <v>57450</v>
+        <v>75902</v>
       </c>
       <c r="M176" s="11">
-        <v>75902</v>
+        <v>81336088</v>
       </c>
       <c r="N176" s="11">
-        <v>81336088</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85714</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>35</v>
       </c>
@@ -6546,37 +6546,37 @@
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9">
-        <v>16250</v>
+        <v>16507</v>
       </c>
       <c r="F177" s="9">
-        <v>16507</v>
+        <v>17041</v>
       </c>
       <c r="G177" s="9">
-        <v>17041</v>
+        <v>27852</v>
       </c>
       <c r="H177" s="9">
-        <v>27852</v>
-      </c>
-      <c r="I177" s="9">
         <v>33305</v>
       </c>
-      <c r="J177" s="9" t="s">
-        <v>15</v>
+      <c r="I177" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" s="9">
+        <v>37175</v>
       </c>
       <c r="K177" s="9">
-        <v>37175</v>
+        <v>36847</v>
       </c>
       <c r="L177" s="9">
-        <v>36847</v>
+        <v>16412</v>
       </c>
       <c r="M177" s="9">
-        <v>16412</v>
+        <v>122221429</v>
       </c>
       <c r="N177" s="9">
-        <v>122221429</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+        <v>129337</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>36</v>
       </c>
@@ -6590,32 +6590,32 @@
       <c r="F178" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G178" s="11" t="s">
-        <v>15</v>
+      <c r="G178" s="11">
+        <v>76443</v>
       </c>
       <c r="H178" s="11">
-        <v>76443</v>
-      </c>
-      <c r="I178" s="11">
         <v>76475</v>
       </c>
-      <c r="J178" s="11" t="s">
-        <v>15</v>
+      <c r="I178" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" s="11">
+        <v>79426</v>
       </c>
       <c r="K178" s="11">
-        <v>79426</v>
+        <v>130476</v>
       </c>
       <c r="L178" s="11">
-        <v>130476</v>
+        <v>157933</v>
       </c>
       <c r="M178" s="11">
-        <v>157933</v>
+        <v>157417722</v>
       </c>
       <c r="N178" s="11">
-        <v>157417722</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>119077</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="8" t="s">
         <v>37</v>
       </c>
@@ -6624,37 +6624,37 @@
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9">
-        <v>26650</v>
+        <v>31884</v>
       </c>
       <c r="F179" s="9">
-        <v>31884</v>
+        <v>110700</v>
       </c>
       <c r="G179" s="9">
-        <v>110700</v>
+        <v>38876</v>
       </c>
       <c r="H179" s="9">
-        <v>38876</v>
-      </c>
-      <c r="I179" s="9">
         <v>47994</v>
       </c>
-      <c r="J179" s="9" t="s">
-        <v>15</v>
+      <c r="I179" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="9">
+        <v>39518</v>
       </c>
       <c r="K179" s="9">
-        <v>39518</v>
+        <v>46298</v>
       </c>
       <c r="L179" s="9">
-        <v>46298</v>
+        <v>108615</v>
       </c>
       <c r="M179" s="9">
-        <v>108615</v>
+        <v>123411043</v>
       </c>
       <c r="N179" s="9">
-        <v>123411043</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>194698</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="10" t="s">
         <v>38</v>
       </c>
@@ -6663,37 +6663,37 @@
       </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11">
-        <v>24457</v>
+        <v>50323</v>
       </c>
       <c r="F180" s="11">
-        <v>50323</v>
+        <v>55771</v>
       </c>
       <c r="G180" s="11">
-        <v>55771</v>
+        <v>99480</v>
       </c>
       <c r="H180" s="11">
-        <v>99480</v>
-      </c>
-      <c r="I180" s="11">
         <v>79670</v>
       </c>
-      <c r="J180" s="11" t="s">
-        <v>15</v>
+      <c r="I180" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J180" s="11">
+        <v>82270</v>
       </c>
       <c r="K180" s="11">
-        <v>82270</v>
+        <v>113116</v>
       </c>
       <c r="L180" s="11">
-        <v>113116</v>
+        <v>135847</v>
       </c>
       <c r="M180" s="11">
-        <v>135847</v>
+        <v>124000000</v>
       </c>
       <c r="N180" s="11">
-        <v>124000000</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>121820</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="8" t="s">
         <v>39</v>
       </c>
@@ -6702,37 +6702,37 @@
       </c>
       <c r="D181" s="9"/>
       <c r="E181" s="9">
-        <v>15456</v>
+        <v>16654</v>
       </c>
       <c r="F181" s="9">
-        <v>16654</v>
+        <v>14632</v>
       </c>
       <c r="G181" s="9">
-        <v>14632</v>
+        <v>21320</v>
       </c>
       <c r="H181" s="9">
-        <v>21320</v>
-      </c>
-      <c r="I181" s="9">
         <v>31802</v>
       </c>
-      <c r="J181" s="9" t="s">
-        <v>15</v>
+      <c r="I181" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J181" s="9">
+        <v>41859</v>
       </c>
       <c r="K181" s="9">
-        <v>41859</v>
+        <v>32512</v>
       </c>
       <c r="L181" s="9">
-        <v>32512</v>
+        <v>56347</v>
       </c>
       <c r="M181" s="9">
-        <v>56347</v>
+        <v>96362416</v>
       </c>
       <c r="N181" s="9">
-        <v>96362416</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>114189</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="10" t="s">
         <v>40</v>
       </c>
@@ -6746,32 +6746,32 @@
       <c r="F182" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G182" s="11" t="s">
-        <v>15</v>
+      <c r="G182" s="11">
+        <v>61177000000</v>
       </c>
       <c r="H182" s="11">
-        <v>61177000000</v>
-      </c>
-      <c r="I182" s="11">
         <v>83841000000</v>
       </c>
-      <c r="J182" s="11" t="s">
-        <v>15</v>
+      <c r="I182" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J182" s="11">
+        <v>628345</v>
       </c>
       <c r="K182" s="11">
-        <v>628345</v>
+        <v>1000000</v>
       </c>
       <c r="L182" s="11">
-        <v>1000000</v>
+        <v>787690</v>
       </c>
       <c r="M182" s="11">
-        <v>787690</v>
+        <v>239223</v>
       </c>
       <c r="N182" s="11">
-        <v>239223</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>193508</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -6786,7 +6786,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6801,7 +6801,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -6816,7 +6816,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
         <v>54</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6868,7 +6868,7 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>28</v>
       </c>
@@ -6877,37 +6877,37 @@
       </c>
       <c r="D188" s="9"/>
       <c r="E188" s="9">
-        <v>52572</v>
+        <v>147227</v>
       </c>
       <c r="F188" s="9">
-        <v>147227</v>
+        <v>154584</v>
       </c>
       <c r="G188" s="9">
-        <v>154584</v>
+        <v>141025</v>
       </c>
       <c r="H188" s="9">
-        <v>141025</v>
-      </c>
-      <c r="I188" s="9">
         <v>129819</v>
       </c>
-      <c r="J188" s="9" t="s">
-        <v>15</v>
+      <c r="I188" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J188" s="9">
+        <v>-52730</v>
       </c>
       <c r="K188" s="9">
-        <v>-52730</v>
+        <v>215384</v>
       </c>
       <c r="L188" s="9">
-        <v>215384</v>
+        <v>-180491</v>
       </c>
       <c r="M188" s="9">
-        <v>-180491</v>
+        <v>90872</v>
       </c>
       <c r="N188" s="9">
-        <v>90872</v>
-      </c>
-    </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+        <v>287798</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>30</v>
       </c>
@@ -6918,35 +6918,35 @@
       <c r="E189" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F189" s="11" t="s">
-        <v>15</v>
+      <c r="F189" s="11">
+        <v>87382</v>
       </c>
       <c r="G189" s="11">
-        <v>87382</v>
+        <v>110439</v>
       </c>
       <c r="H189" s="11">
-        <v>110439</v>
-      </c>
-      <c r="I189" s="11">
         <v>99408</v>
       </c>
-      <c r="J189" s="11" t="s">
-        <v>15</v>
+      <c r="I189" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J189" s="11">
+        <v>-47660</v>
       </c>
       <c r="K189" s="11">
-        <v>-47660</v>
+        <v>149728</v>
       </c>
       <c r="L189" s="11">
-        <v>149728</v>
+        <v>-158037</v>
       </c>
       <c r="M189" s="11">
-        <v>-158037</v>
+        <v>72154</v>
       </c>
       <c r="N189" s="11">
-        <v>72154</v>
-      </c>
-    </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+        <v>233129</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>31</v>
       </c>
@@ -6957,35 +6957,35 @@
       <c r="E190" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F190" s="9" t="s">
-        <v>15</v>
+      <c r="F190" s="9">
+        <v>179211</v>
       </c>
       <c r="G190" s="9">
-        <v>179211</v>
+        <v>252868</v>
       </c>
       <c r="H190" s="9">
-        <v>252868</v>
-      </c>
-      <c r="I190" s="9">
         <v>258025</v>
       </c>
-      <c r="J190" s="9" t="s">
-        <v>15</v>
+      <c r="I190" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J190" s="9">
+        <v>-190129</v>
       </c>
       <c r="K190" s="9">
-        <v>-190129</v>
+        <v>530263</v>
       </c>
       <c r="L190" s="9">
-        <v>530263</v>
+        <v>-729279</v>
       </c>
       <c r="M190" s="9">
-        <v>-729279</v>
+        <v>223143</v>
       </c>
       <c r="N190" s="9">
-        <v>223143</v>
-      </c>
-    </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+        <v>651709</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>32</v>
       </c>
@@ -6994,37 +6994,37 @@
       </c>
       <c r="D191" s="11"/>
       <c r="E191" s="11">
-        <v>25750</v>
+        <v>29283</v>
       </c>
       <c r="F191" s="11">
-        <v>29283</v>
+        <v>38507</v>
       </c>
       <c r="G191" s="11">
-        <v>38507</v>
+        <v>46944</v>
       </c>
       <c r="H191" s="11">
-        <v>46944</v>
-      </c>
-      <c r="I191" s="11">
         <v>51707</v>
       </c>
-      <c r="J191" s="11" t="s">
-        <v>15</v>
+      <c r="I191" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J191" s="11">
+        <v>-98</v>
       </c>
       <c r="K191" s="11">
-        <v>-98</v>
+        <v>70207</v>
       </c>
       <c r="L191" s="11">
-        <v>70207</v>
+        <v>-130792</v>
       </c>
       <c r="M191" s="11">
-        <v>-130792</v>
+        <v>5266</v>
       </c>
       <c r="N191" s="11">
-        <v>5266</v>
-      </c>
-    </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+        <v>209798</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>33</v>
       </c>
@@ -7033,37 +7033,37 @@
       </c>
       <c r="D192" s="9"/>
       <c r="E192" s="9">
-        <v>6386</v>
+        <v>6908</v>
       </c>
       <c r="F192" s="9">
-        <v>6908</v>
+        <v>10454</v>
       </c>
       <c r="G192" s="9">
-        <v>10454</v>
+        <v>14678</v>
       </c>
       <c r="H192" s="9">
-        <v>14678</v>
-      </c>
-      <c r="I192" s="9">
         <v>16522</v>
       </c>
-      <c r="J192" s="9" t="s">
-        <v>15</v>
+      <c r="I192" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J192" s="9">
+        <v>15255899</v>
       </c>
       <c r="K192" s="9">
-        <v>15255899</v>
+        <v>24533</v>
       </c>
       <c r="L192" s="9">
-        <v>24533</v>
+        <v>-50049</v>
       </c>
       <c r="M192" s="9">
-        <v>-50049</v>
+        <v>9630</v>
       </c>
       <c r="N192" s="9">
-        <v>9630</v>
-      </c>
-    </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+        <v>328330</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>34</v>
       </c>
@@ -7072,37 +7072,37 @@
       </c>
       <c r="D193" s="11"/>
       <c r="E193" s="11">
-        <v>28032</v>
+        <v>30496</v>
       </c>
       <c r="F193" s="11">
-        <v>30496</v>
+        <v>39608</v>
       </c>
       <c r="G193" s="11">
-        <v>39608</v>
+        <v>48744</v>
       </c>
       <c r="H193" s="11">
-        <v>48744</v>
-      </c>
-      <c r="I193" s="11">
         <v>50098</v>
       </c>
-      <c r="J193" s="11" t="s">
-        <v>15</v>
+      <c r="I193" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J193" s="11">
+        <v>-17206</v>
       </c>
       <c r="K193" s="11">
-        <v>-17206</v>
+        <v>78523</v>
       </c>
       <c r="L193" s="11">
-        <v>78523</v>
+        <v>-40835</v>
       </c>
       <c r="M193" s="11">
-        <v>-40835</v>
+        <v>46183</v>
       </c>
       <c r="N193" s="11">
-        <v>46183</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <v>141042</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>35</v>
       </c>
@@ -7111,37 +7111,37 @@
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9">
-        <v>16844</v>
+        <v>23432</v>
       </c>
       <c r="F194" s="9">
-        <v>23432</v>
+        <v>68250</v>
       </c>
       <c r="G194" s="9">
-        <v>68250</v>
+        <v>33833</v>
       </c>
       <c r="H194" s="9">
-        <v>33833</v>
-      </c>
-      <c r="I194" s="9">
         <v>30026</v>
       </c>
-      <c r="J194" s="9" t="s">
-        <v>15</v>
+      <c r="I194" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J194" s="9">
+        <v>-23947</v>
       </c>
       <c r="K194" s="9">
-        <v>-23947</v>
+        <v>95913</v>
       </c>
       <c r="L194" s="9">
-        <v>95913</v>
+        <v>-67075</v>
       </c>
       <c r="M194" s="9">
-        <v>-67075</v>
+        <v>45309</v>
       </c>
       <c r="N194" s="9">
-        <v>45309</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>121738</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>36</v>
       </c>
@@ -7152,35 +7152,35 @@
       <c r="E195" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F195" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G195" s="11">
+      <c r="F195" s="11">
         <v>84857</v>
       </c>
+      <c r="G195" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H195" s="11" t="s">
         <v>15</v>
       </c>
       <c r="I195" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J195" s="11" t="s">
-        <v>15</v>
+      <c r="J195" s="11">
+        <v>-358784</v>
       </c>
       <c r="K195" s="11">
-        <v>-358784</v>
+        <v>165311</v>
       </c>
       <c r="L195" s="11">
-        <v>165311</v>
+        <v>-26397</v>
       </c>
       <c r="M195" s="11">
-        <v>-26397</v>
+        <v>66670</v>
       </c>
       <c r="N195" s="11">
-        <v>66670</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+        <v>160340</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>37</v>
       </c>
@@ -7189,37 +7189,37 @@
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9">
-        <v>30157</v>
+        <v>78262</v>
       </c>
       <c r="F196" s="9">
-        <v>78262</v>
+        <v>38552</v>
       </c>
       <c r="G196" s="9">
-        <v>38552</v>
+        <v>56958</v>
       </c>
       <c r="H196" s="9">
-        <v>56958</v>
-      </c>
-      <c r="I196" s="9">
         <v>41922</v>
       </c>
-      <c r="J196" s="9" t="s">
-        <v>15</v>
+      <c r="I196" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J196" s="9">
+        <v>-24069</v>
       </c>
       <c r="K196" s="9">
-        <v>-24069</v>
+        <v>144684</v>
       </c>
       <c r="L196" s="9">
-        <v>144684</v>
+        <v>-134236</v>
       </c>
       <c r="M196" s="9">
-        <v>-134236</v>
+        <v>68486</v>
       </c>
       <c r="N196" s="9">
-        <v>68486</v>
-      </c>
-    </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+        <v>245152</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>38</v>
       </c>
@@ -7228,37 +7228,37 @@
       </c>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>69362</v>
+        <v>51349</v>
       </c>
       <c r="F197" s="11">
-        <v>51349</v>
+        <v>112283</v>
       </c>
       <c r="G197" s="11">
-        <v>112283</v>
-      </c>
-      <c r="H197" s="11">
         <v>73062</v>
       </c>
+      <c r="H197" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="I197" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J197" s="11" t="s">
-        <v>15</v>
+      <c r="J197" s="11">
+        <v>-72985</v>
       </c>
       <c r="K197" s="11">
-        <v>-72985</v>
+        <v>135975</v>
       </c>
       <c r="L197" s="11">
-        <v>135975</v>
+        <v>119954</v>
       </c>
       <c r="M197" s="11">
-        <v>119954</v>
+        <v>121103</v>
       </c>
       <c r="N197" s="11">
-        <v>121103</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+        <v>154303</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="8" t="s">
         <v>39</v>
       </c>
@@ -7267,37 +7267,37 @@
       </c>
       <c r="D198" s="9"/>
       <c r="E198" s="9">
-        <v>16867</v>
+        <v>18204</v>
       </c>
       <c r="F198" s="9">
-        <v>18204</v>
+        <v>5150321</v>
       </c>
       <c r="G198" s="9">
-        <v>5150321</v>
+        <v>26767</v>
       </c>
       <c r="H198" s="9">
-        <v>26767</v>
-      </c>
-      <c r="I198" s="9">
         <v>30304</v>
       </c>
-      <c r="J198" s="9" t="s">
-        <v>15</v>
+      <c r="I198" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J198" s="9">
+        <v>-11590</v>
       </c>
       <c r="K198" s="9">
-        <v>-11590</v>
+        <v>55918</v>
       </c>
       <c r="L198" s="9">
-        <v>55918</v>
+        <v>-125716</v>
       </c>
       <c r="M198" s="9">
-        <v>-125716</v>
+        <v>60221</v>
       </c>
       <c r="N198" s="9">
-        <v>60221</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+        <v>113614</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="10" t="s">
         <v>40</v>
       </c>
@@ -7311,32 +7311,32 @@
       <c r="F199" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G199" s="11" t="s">
-        <v>15</v>
+      <c r="G199" s="11">
+        <v>91189000000</v>
       </c>
       <c r="H199" s="11">
-        <v>91189000000</v>
-      </c>
-      <c r="I199" s="11">
         <v>27365</v>
       </c>
-      <c r="J199" s="11" t="s">
-        <v>15</v>
+      <c r="I199" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J199" s="11">
+        <v>669608</v>
       </c>
       <c r="K199" s="11">
-        <v>669608</v>
+        <v>1000000</v>
       </c>
       <c r="L199" s="11">
-        <v>1000000</v>
-      </c>
-      <c r="M199" s="11">
         <v>378807</v>
       </c>
+      <c r="M199" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="N199" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -7351,7 +7351,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -7366,7 +7366,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -7381,7 +7381,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B203" s="7" t="s">
         <v>55</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -7433,7 +7433,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="8" t="s">
         <v>28</v>
       </c>
@@ -7442,37 +7442,37 @@
       </c>
       <c r="D205" s="9"/>
       <c r="E205" s="9">
-        <v>47694</v>
+        <v>104999</v>
       </c>
       <c r="F205" s="9">
-        <v>104999</v>
+        <v>153773</v>
       </c>
       <c r="G205" s="9">
-        <v>153773</v>
+        <v>147616</v>
       </c>
       <c r="H205" s="9">
-        <v>147616</v>
-      </c>
-      <c r="I205" s="9">
         <v>131037</v>
       </c>
-      <c r="J205" s="9" t="s">
-        <v>15</v>
+      <c r="I205" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J205" s="9">
+        <v>-35410</v>
       </c>
       <c r="K205" s="9">
-        <v>-35410</v>
+        <v>182422</v>
       </c>
       <c r="L205" s="9">
-        <v>182422</v>
+        <v>-227914</v>
       </c>
       <c r="M205" s="9">
-        <v>-227914</v>
+        <v>80603</v>
       </c>
       <c r="N205" s="9">
-        <v>80603</v>
-      </c>
-    </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+        <v>286511</v>
+      </c>
+    </row>
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="10" t="s">
         <v>30</v>
       </c>
@@ -7483,35 +7483,35 @@
       <c r="E206" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F206" s="11" t="s">
-        <v>15</v>
+      <c r="F206" s="11">
+        <v>82504</v>
       </c>
       <c r="G206" s="11">
-        <v>82504</v>
+        <v>110044</v>
       </c>
       <c r="H206" s="11">
-        <v>110044</v>
-      </c>
-      <c r="I206" s="11">
         <v>99867</v>
       </c>
-      <c r="J206" s="11" t="s">
-        <v>15</v>
+      <c r="I206" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J206" s="11">
+        <v>-36549</v>
       </c>
       <c r="K206" s="11">
-        <v>-36549</v>
+        <v>143687</v>
       </c>
       <c r="L206" s="11">
-        <v>143687</v>
+        <v>-143048</v>
       </c>
       <c r="M206" s="11">
-        <v>-143048</v>
+        <v>60514</v>
       </c>
       <c r="N206" s="11">
-        <v>60514</v>
-      </c>
-    </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+        <v>221271</v>
+      </c>
+    </row>
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="8" t="s">
         <v>31</v>
       </c>
@@ -7522,35 +7522,35 @@
       <c r="E207" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F207" s="9" t="s">
-        <v>15</v>
+      <c r="F207" s="9">
+        <v>176955</v>
       </c>
       <c r="G207" s="9">
-        <v>176955</v>
+        <v>244861</v>
       </c>
       <c r="H207" s="9">
-        <v>244861</v>
-      </c>
-      <c r="I207" s="9">
         <v>257913</v>
       </c>
-      <c r="J207" s="9" t="s">
-        <v>15</v>
+      <c r="I207" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J207" s="9">
+        <v>-152576</v>
       </c>
       <c r="K207" s="9">
-        <v>-152576</v>
+        <v>486403</v>
       </c>
       <c r="L207" s="9">
-        <v>486403</v>
+        <v>-640969</v>
       </c>
       <c r="M207" s="9">
-        <v>-640969</v>
+        <v>185610</v>
       </c>
       <c r="N207" s="9">
-        <v>185610</v>
-      </c>
-    </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+        <v>638344</v>
+      </c>
+    </row>
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="10" t="s">
         <v>32</v>
       </c>
@@ -7559,37 +7559,37 @@
       </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11">
-        <v>23297</v>
+        <v>25717</v>
       </c>
       <c r="F208" s="11">
-        <v>25717</v>
+        <v>29390</v>
       </c>
       <c r="G208" s="11">
-        <v>29390</v>
+        <v>40120</v>
       </c>
       <c r="H208" s="11">
-        <v>40120</v>
-      </c>
-      <c r="I208" s="11">
         <v>48996</v>
       </c>
-      <c r="J208" s="11" t="s">
-        <v>15</v>
+      <c r="I208" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J208" s="11">
+        <v>-12920</v>
       </c>
       <c r="K208" s="11">
-        <v>-12920</v>
+        <v>57275</v>
       </c>
       <c r="L208" s="11">
-        <v>57275</v>
+        <v>-128617</v>
       </c>
       <c r="M208" s="11">
-        <v>-128617</v>
+        <v>18369</v>
       </c>
       <c r="N208" s="11">
-        <v>18369</v>
-      </c>
-    </row>
-    <row r="209" spans="2:14" x14ac:dyDescent="0.25">
+        <v>67832</v>
+      </c>
+    </row>
+    <row r="209" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B209" s="8" t="s">
         <v>33</v>
       </c>
@@ -7598,37 +7598,37 @@
       </c>
       <c r="D209" s="9"/>
       <c r="E209" s="9">
-        <v>6056</v>
+        <v>6286</v>
       </c>
       <c r="F209" s="9">
-        <v>6286</v>
+        <v>7446</v>
       </c>
       <c r="G209" s="9">
-        <v>7446</v>
+        <v>8892</v>
       </c>
       <c r="H209" s="9">
-        <v>8892</v>
-      </c>
-      <c r="I209" s="9">
         <v>12673</v>
       </c>
-      <c r="J209" s="9" t="s">
-        <v>15</v>
+      <c r="I209" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J209" s="9">
+        <v>12393743</v>
       </c>
       <c r="K209" s="9">
-        <v>12393743</v>
+        <v>15270</v>
       </c>
       <c r="L209" s="9">
-        <v>15270</v>
+        <v>-16626</v>
       </c>
       <c r="M209" s="9">
-        <v>-16626</v>
+        <v>5685</v>
       </c>
       <c r="N209" s="9">
-        <v>5685</v>
-      </c>
-    </row>
-    <row r="210" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16564</v>
+      </c>
+    </row>
+    <row r="210" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B210" s="10" t="s">
         <v>34</v>
       </c>
@@ -7637,37 +7637,37 @@
       </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11">
-        <v>26990</v>
+        <v>28528</v>
       </c>
       <c r="F210" s="11">
-        <v>28528</v>
+        <v>31803</v>
       </c>
       <c r="G210" s="11">
-        <v>31803</v>
+        <v>34804</v>
       </c>
       <c r="H210" s="11">
-        <v>34804</v>
-      </c>
-      <c r="I210" s="11">
         <v>44522</v>
       </c>
-      <c r="J210" s="11" t="s">
-        <v>15</v>
+      <c r="I210" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J210" s="11">
+        <v>-17747</v>
       </c>
       <c r="K210" s="11">
-        <v>-17747</v>
+        <v>67428</v>
       </c>
       <c r="L210" s="11">
-        <v>67428</v>
+        <v>-59600</v>
       </c>
       <c r="M210" s="11">
-        <v>-59600</v>
+        <v>25153</v>
       </c>
       <c r="N210" s="11">
-        <v>25153</v>
-      </c>
-    </row>
-    <row r="211" spans="2:14" x14ac:dyDescent="0.25">
+        <v>87700</v>
+      </c>
+    </row>
+    <row r="211" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B211" s="8" t="s">
         <v>35</v>
       </c>
@@ -7676,37 +7676,37 @@
       </c>
       <c r="D211" s="9"/>
       <c r="E211" s="9">
-        <v>16382</v>
+        <v>37489</v>
       </c>
       <c r="F211" s="9">
-        <v>37489</v>
+        <v>33066</v>
       </c>
       <c r="G211" s="9">
-        <v>33066</v>
+        <v>31527</v>
       </c>
       <c r="H211" s="9">
-        <v>31527</v>
-      </c>
-      <c r="I211" s="9">
         <v>30895</v>
       </c>
-      <c r="J211" s="9" t="s">
-        <v>15</v>
+      <c r="I211" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J211" s="9">
+        <v>-19677</v>
       </c>
       <c r="K211" s="9">
-        <v>-19677</v>
+        <v>74973718</v>
       </c>
       <c r="L211" s="9">
-        <v>74973718</v>
+        <v>98205712</v>
       </c>
       <c r="M211" s="9">
-        <v>98205712</v>
+        <v>35220</v>
       </c>
       <c r="N211" s="9">
-        <v>35220</v>
-      </c>
-    </row>
-    <row r="212" spans="2:14" x14ac:dyDescent="0.25">
+        <v>126649</v>
+      </c>
+    </row>
+    <row r="212" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B212" s="10" t="s">
         <v>36</v>
       </c>
@@ -7717,35 +7717,35 @@
       <c r="E212" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F212" s="11" t="s">
-        <v>15</v>
+      <c r="F212" s="11">
+        <v>55596</v>
       </c>
       <c r="G212" s="11">
-        <v>55596</v>
+        <v>76410</v>
       </c>
       <c r="H212" s="11">
-        <v>76410</v>
-      </c>
-      <c r="I212" s="11">
         <v>76524</v>
       </c>
-      <c r="J212" s="11" t="s">
-        <v>15</v>
+      <c r="I212" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J212" s="11">
+        <v>-33788</v>
       </c>
       <c r="K212" s="11">
-        <v>-33788</v>
+        <v>149756</v>
       </c>
       <c r="L212" s="11">
-        <v>149756</v>
+        <v>-170545</v>
       </c>
       <c r="M212" s="11">
-        <v>-170545</v>
+        <v>46810</v>
       </c>
       <c r="N212" s="11">
-        <v>46810</v>
-      </c>
-    </row>
-    <row r="213" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136508</v>
+      </c>
+    </row>
+    <row r="213" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B213" s="8" t="s">
         <v>37</v>
       </c>
@@ -7754,37 +7754,37 @@
       </c>
       <c r="D213" s="9"/>
       <c r="E213" s="9">
-        <v>28394</v>
+        <v>67135</v>
       </c>
       <c r="F213" s="9">
-        <v>67135</v>
+        <v>42651</v>
       </c>
       <c r="G213" s="9">
-        <v>42651</v>
+        <v>51857</v>
       </c>
       <c r="H213" s="9">
-        <v>51857</v>
-      </c>
-      <c r="I213" s="9">
         <v>43611</v>
       </c>
-      <c r="J213" s="9" t="s">
-        <v>15</v>
+      <c r="I213" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J213" s="9">
+        <v>-17605</v>
       </c>
       <c r="K213" s="9">
-        <v>-17605</v>
+        <v>93567</v>
       </c>
       <c r="L213" s="9">
-        <v>93567</v>
+        <v>-66626</v>
       </c>
       <c r="M213" s="9">
-        <v>-66626</v>
+        <v>54675</v>
       </c>
       <c r="N213" s="9">
-        <v>54675</v>
-      </c>
-    </row>
-    <row r="214" spans="2:14" x14ac:dyDescent="0.25">
+        <v>230473</v>
+      </c>
+    </row>
+    <row r="214" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B214" s="10" t="s">
         <v>38</v>
       </c>
@@ -7793,37 +7793,37 @@
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11">
-        <v>64557</v>
+        <v>49840</v>
       </c>
       <c r="F214" s="11">
-        <v>49840</v>
+        <v>96738</v>
       </c>
       <c r="G214" s="11">
-        <v>96738</v>
+        <v>82816</v>
       </c>
       <c r="H214" s="11">
-        <v>82816</v>
-      </c>
-      <c r="I214" s="11">
         <v>79587</v>
       </c>
-      <c r="J214" s="11" t="s">
-        <v>15</v>
+      <c r="I214" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J214" s="11">
+        <v>-40939</v>
       </c>
       <c r="K214" s="11">
-        <v>-40939</v>
+        <v>128891</v>
       </c>
       <c r="L214" s="11">
-        <v>128891</v>
+        <v>97434</v>
       </c>
       <c r="M214" s="11">
-        <v>97434</v>
+        <v>116638</v>
       </c>
       <c r="N214" s="11">
-        <v>116638</v>
-      </c>
-    </row>
-    <row r="215" spans="2:14" x14ac:dyDescent="0.25">
+        <v>140877</v>
+      </c>
+    </row>
+    <row r="215" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B215" s="8" t="s">
         <v>39</v>
       </c>
@@ -7832,37 +7832,37 @@
       </c>
       <c r="D215" s="9"/>
       <c r="E215" s="9">
-        <v>16792</v>
+        <v>19200</v>
       </c>
       <c r="F215" s="9">
-        <v>19200</v>
+        <v>48068</v>
       </c>
       <c r="G215" s="9">
-        <v>48068</v>
+        <v>25235</v>
       </c>
       <c r="H215" s="9">
-        <v>25235</v>
-      </c>
-      <c r="I215" s="9">
         <v>30194</v>
       </c>
-      <c r="J215" s="9" t="s">
-        <v>15</v>
+      <c r="I215" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J215" s="9">
+        <v>-10827</v>
       </c>
       <c r="K215" s="9">
-        <v>-10827</v>
+        <v>48400</v>
       </c>
       <c r="L215" s="9">
-        <v>48400</v>
+        <v>-110330</v>
       </c>
       <c r="M215" s="9">
-        <v>-110330</v>
+        <v>46531</v>
       </c>
       <c r="N215" s="9">
-        <v>46531</v>
-      </c>
-    </row>
-    <row r="216" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116021</v>
+      </c>
+    </row>
+    <row r="216" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B216" s="10" t="s">
         <v>40</v>
       </c>
@@ -7876,32 +7876,32 @@
       <c r="F216" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G216" s="11" t="s">
-        <v>15</v>
+      <c r="G216" s="11">
+        <v>68525000000</v>
       </c>
       <c r="H216" s="11">
-        <v>68525000000</v>
-      </c>
-      <c r="I216" s="11">
         <v>37874</v>
       </c>
+      <c r="I216" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="J216" s="11" t="s">
         <v>15</v>
       </c>
       <c r="K216" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L216" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M216" s="11">
+      <c r="L216" s="11">
         <v>316798</v>
       </c>
+      <c r="M216" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="N216" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="217" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -7916,7 +7916,7 @@
       <c r="M217" s="1"/>
       <c r="N217" s="1"/>
     </row>
-    <row r="218" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -7931,7 +7931,7 @@
       <c r="M218" s="1"/>
       <c r="N218" s="1"/>
     </row>
-    <row r="219" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -7946,7 +7946,7 @@
       <c r="M219" s="1"/>
       <c r="N219" s="1"/>
     </row>
-    <row r="220" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B220" s="7" t="s">
         <v>56</v>
       </c>
@@ -7983,7 +7983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -7998,7 +7998,7 @@
       <c r="M221" s="1"/>
       <c r="N221" s="1"/>
     </row>
-    <row r="222" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B222" s="8" t="s">
         <v>28</v>
       </c>
@@ -8015,29 +8015,29 @@
       <c r="G222" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H222" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I222" s="9">
+      <c r="H222" s="9">
         <v>128222</v>
       </c>
-      <c r="J222" s="9" t="s">
-        <v>15</v>
+      <c r="I222" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J222" s="9">
+        <v>137724638</v>
       </c>
       <c r="K222" s="9">
-        <v>137724638</v>
+        <v>245016</v>
       </c>
       <c r="L222" s="9">
-        <v>245016</v>
+        <v>264714286</v>
       </c>
       <c r="M222" s="9">
-        <v>264714286</v>
+        <v>271073</v>
       </c>
       <c r="N222" s="9">
-        <v>271073</v>
-      </c>
-    </row>
-    <row r="223" spans="2:14" x14ac:dyDescent="0.25">
+        <v>286304</v>
+      </c>
+    </row>
+    <row r="223" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B223" s="10" t="s">
         <v>30</v>
       </c>
@@ -8054,29 +8054,29 @@
       <c r="G223" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H223" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I223" s="11">
+      <c r="H223" s="11">
         <v>98389</v>
       </c>
-      <c r="J223" s="11" t="s">
-        <v>15</v>
+      <c r="I223" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J223" s="11">
+        <v>129020833</v>
       </c>
       <c r="K223" s="11">
-        <v>129020833</v>
+        <v>165026</v>
       </c>
       <c r="L223" s="11">
-        <v>165026</v>
+        <v>174142857</v>
       </c>
       <c r="M223" s="11">
-        <v>174142857</v>
+        <v>177880</v>
       </c>
       <c r="N223" s="11">
-        <v>177880</v>
-      </c>
-    </row>
-    <row r="224" spans="2:14" x14ac:dyDescent="0.25">
+        <v>242538</v>
+      </c>
+    </row>
+    <row r="224" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B224" s="8" t="s">
         <v>31</v>
       </c>
@@ -8093,29 +8093,29 @@
       <c r="G224" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H224" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I224" s="9">
+      <c r="H224" s="9">
         <v>263833</v>
       </c>
-      <c r="J224" s="9" t="s">
-        <v>15</v>
+      <c r="I224" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J224" s="9">
+        <v>373711111</v>
       </c>
       <c r="K224" s="9">
-        <v>373711111</v>
+        <v>610435</v>
       </c>
       <c r="L224" s="9">
-        <v>610435</v>
+        <v>647666667</v>
       </c>
       <c r="M224" s="9">
-        <v>647666667</v>
+        <v>634756</v>
       </c>
       <c r="N224" s="9">
-        <v>634756</v>
-      </c>
-    </row>
-    <row r="225" spans="2:14" x14ac:dyDescent="0.25">
+        <v>676426</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B225" s="10" t="s">
         <v>32</v>
       </c>
@@ -8132,29 +8132,29 @@
       <c r="G225" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H225" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I225" s="11">
+      <c r="H225" s="11">
         <v>49295</v>
       </c>
-      <c r="J225" s="11" t="s">
-        <v>15</v>
+      <c r="I225" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J225" s="11">
+        <v>49706105</v>
       </c>
       <c r="K225" s="11">
-        <v>49706105</v>
+        <v>63186</v>
       </c>
       <c r="L225" s="11">
-        <v>63186</v>
+        <v>67772486</v>
       </c>
       <c r="M225" s="11">
-        <v>67772486</v>
+        <v>67577</v>
       </c>
       <c r="N225" s="11">
-        <v>67577</v>
-      </c>
-    </row>
-    <row r="226" spans="2:14" x14ac:dyDescent="0.25">
+        <v>68779</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B226" s="8" t="s">
         <v>33</v>
       </c>
@@ -8171,29 +8171,29 @@
       <c r="G226" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H226" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I226" s="9">
+      <c r="H226" s="9">
         <v>13564</v>
       </c>
-      <c r="J226" s="9" t="s">
-        <v>15</v>
+      <c r="I226" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J226" s="9">
+        <v>14469298</v>
       </c>
       <c r="K226" s="9">
-        <v>14469298</v>
+        <v>17047</v>
       </c>
       <c r="L226" s="9">
-        <v>17047</v>
+        <v>16494479</v>
       </c>
       <c r="M226" s="9">
-        <v>16494479</v>
+        <v>16381</v>
       </c>
       <c r="N226" s="9">
-        <v>16381</v>
-      </c>
-    </row>
-    <row r="227" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16752</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B227" s="10" t="s">
         <v>34</v>
       </c>
@@ -8210,29 +8210,29 @@
       <c r="G227" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H227" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I227" s="11">
+      <c r="H227" s="11">
         <v>45343</v>
       </c>
-      <c r="J227" s="11" t="s">
-        <v>15</v>
+      <c r="I227" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J227" s="11">
+        <v>57473810</v>
       </c>
       <c r="K227" s="11">
-        <v>57473810</v>
+        <v>75902</v>
       </c>
       <c r="L227" s="11">
-        <v>75902</v>
+        <v>81336088</v>
       </c>
       <c r="M227" s="11">
-        <v>81336088</v>
+        <v>85714</v>
       </c>
       <c r="N227" s="11">
-        <v>85714</v>
-      </c>
-    </row>
-    <row r="228" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86704</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B228" s="8" t="s">
         <v>35</v>
       </c>
@@ -8249,29 +8249,29 @@
       <c r="G228" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H228" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I228" s="9">
+      <c r="H228" s="9">
         <v>28943</v>
       </c>
-      <c r="J228" s="9" t="s">
-        <v>15</v>
+      <c r="I228" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J228" s="9">
+        <v>36864491</v>
       </c>
       <c r="K228" s="9">
-        <v>36864491</v>
+        <v>16412</v>
       </c>
       <c r="L228" s="9">
-        <v>16412</v>
+        <v>122221429</v>
       </c>
       <c r="M228" s="9">
-        <v>122221429</v>
+        <v>129337</v>
       </c>
       <c r="N228" s="9">
-        <v>129337</v>
-      </c>
-    </row>
-    <row r="229" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116730</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B229" s="10" t="s">
         <v>36</v>
       </c>
@@ -8288,29 +8288,29 @@
       <c r="G229" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H229" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I229" s="11">
+      <c r="H229" s="11">
         <v>76369</v>
       </c>
-      <c r="J229" s="11" t="s">
-        <v>15</v>
+      <c r="I229" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J229" s="11">
+        <v>130488235</v>
       </c>
       <c r="K229" s="11">
-        <v>130488235</v>
+        <v>157933</v>
       </c>
       <c r="L229" s="11">
-        <v>157933</v>
+        <v>157417722</v>
       </c>
       <c r="M229" s="11">
-        <v>157417722</v>
+        <v>119077</v>
       </c>
       <c r="N229" s="11">
-        <v>119077</v>
-      </c>
-    </row>
-    <row r="230" spans="2:14" x14ac:dyDescent="0.25">
+        <v>149695</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B230" s="8" t="s">
         <v>37</v>
       </c>
@@ -8327,29 +8327,29 @@
       <c r="G230" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H230" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I230" s="9">
+      <c r="H230" s="9">
         <v>42670</v>
       </c>
-      <c r="J230" s="9" t="s">
-        <v>15</v>
+      <c r="I230" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J230" s="9">
+        <v>46296596</v>
       </c>
       <c r="K230" s="9">
-        <v>46296596</v>
+        <v>108615</v>
       </c>
       <c r="L230" s="9">
-        <v>108615</v>
+        <v>123411043</v>
       </c>
       <c r="M230" s="9">
-        <v>123411043</v>
+        <v>194698</v>
       </c>
       <c r="N230" s="9">
-        <v>194698</v>
-      </c>
-    </row>
-    <row r="231" spans="2:14" x14ac:dyDescent="0.25">
+        <v>263567</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B231" s="10" t="s">
         <v>38</v>
       </c>
@@ -8366,29 +8366,29 @@
       <c r="G231" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H231" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I231" s="11">
+      <c r="H231" s="11">
         <v>80049</v>
       </c>
-      <c r="J231" s="11" t="s">
-        <v>15</v>
+      <c r="I231" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J231" s="11">
+        <v>113675676</v>
       </c>
       <c r="K231" s="11">
-        <v>113675676</v>
+        <v>135847</v>
       </c>
       <c r="L231" s="11">
-        <v>135847</v>
+        <v>124000000</v>
       </c>
       <c r="M231" s="11">
-        <v>124000000</v>
+        <v>121820</v>
       </c>
       <c r="N231" s="11">
-        <v>121820</v>
-      </c>
-    </row>
-    <row r="232" spans="2:14" x14ac:dyDescent="0.25">
+        <v>164169</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B232" s="8" t="s">
         <v>39</v>
       </c>
@@ -8405,29 +8405,29 @@
       <c r="G232" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H232" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I232" s="9">
+      <c r="H232" s="9">
         <v>31661</v>
       </c>
-      <c r="J232" s="9" t="s">
-        <v>15</v>
+      <c r="I232" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J232" s="9">
+        <v>32472441</v>
       </c>
       <c r="K232" s="9">
-        <v>32472441</v>
+        <v>56347</v>
       </c>
       <c r="L232" s="9">
-        <v>56347</v>
+        <v>96362416</v>
       </c>
       <c r="M232" s="9">
-        <v>96362416</v>
+        <v>114189</v>
       </c>
       <c r="N232" s="9">
-        <v>114189</v>
-      </c>
-    </row>
-    <row r="233" spans="2:14" x14ac:dyDescent="0.25">
+        <v>76930</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B233" s="10" t="s">
         <v>40</v>
       </c>
@@ -8444,29 +8444,29 @@
       <c r="G233" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H233" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I233" s="11">
+      <c r="H233" s="11">
         <v>41676</v>
       </c>
-      <c r="J233" s="11" t="s">
-        <v>15</v>
+      <c r="I233" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J233" s="11">
+        <v>135108</v>
       </c>
       <c r="K233" s="11">
-        <v>135108</v>
+        <v>787690</v>
       </c>
       <c r="L233" s="11">
-        <v>787690</v>
+        <v>239223</v>
       </c>
       <c r="M233" s="11">
-        <v>239223</v>
+        <v>193508</v>
       </c>
       <c r="N233" s="11">
-        <v>193508</v>
-      </c>
-    </row>
-    <row r="234" spans="2:14" x14ac:dyDescent="0.25">
+        <v>303271</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -8481,7 +8481,7 @@
       <c r="M234" s="1"/>
       <c r="N234" s="1"/>
     </row>
-    <row r="235" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="1"/>
@@ -8496,7 +8496,7 @@
       <c r="M235" s="1"/>
       <c r="N235" s="1"/>
     </row>
-    <row r="236" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="1"/>
@@ -8511,7 +8511,7 @@
       <c r="M236" s="1"/>
       <c r="N236" s="1"/>
     </row>
-    <row r="237" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B237" s="7" t="s">
         <v>57</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="238" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="1"/>
@@ -8563,7 +8563,7 @@
       <c r="M238" s="1"/>
       <c r="N238" s="1"/>
     </row>
-    <row r="239" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B239" s="8" t="s">
         <v>58</v>
       </c>
@@ -8572,12 +8572,12 @@
       <c r="E239" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F239" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G239" s="9">
+      <c r="F239" s="9">
         <v>24073</v>
       </c>
+      <c r="G239" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H239" s="9" t="s">
         <v>15</v>
       </c>
@@ -8587,20 +8587,20 @@
       <c r="J239" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K239" s="9" t="s">
-        <v>15</v>
+      <c r="K239" s="9">
+        <v>13023</v>
       </c>
       <c r="L239" s="9">
-        <v>13023</v>
+        <v>26630</v>
       </c>
       <c r="M239" s="9">
-        <v>26630</v>
+        <v>54041</v>
       </c>
       <c r="N239" s="9">
-        <v>54041</v>
-      </c>
-    </row>
-    <row r="240" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14861</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B240" s="10" t="s">
         <v>59</v>
       </c>
@@ -8610,34 +8610,34 @@
         <v>0</v>
       </c>
       <c r="F240" s="11">
+        <v>6136</v>
+      </c>
+      <c r="G240" s="11">
         <v>0</v>
-      </c>
-      <c r="G240" s="11">
-        <v>6136</v>
       </c>
       <c r="H240" s="11">
         <v>0</v>
       </c>
-      <c r="I240" s="11">
-        <v>0</v>
+      <c r="I240" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="J240" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K240" s="11" t="s">
-        <v>15</v>
+      <c r="K240" s="11">
+        <v>10124</v>
       </c>
       <c r="L240" s="11">
-        <v>10124</v>
+        <v>1638</v>
       </c>
       <c r="M240" s="11">
-        <v>1638</v>
+        <v>14345</v>
       </c>
       <c r="N240" s="11">
-        <v>14345</v>
-      </c>
-    </row>
-    <row r="241" spans="2:14" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B241" s="8" t="s">
         <v>60</v>
       </c>
@@ -8655,14 +8655,14 @@
       <c r="H241" s="9">
         <v>0</v>
       </c>
-      <c r="I241" s="9">
+      <c r="I241" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J241" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K241" s="9">
         <v>0</v>
-      </c>
-      <c r="J241" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K241" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="L241" s="9">
         <v>0</v>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B242" s="10" t="s">
         <v>61</v>
       </c>
@@ -8692,14 +8692,14 @@
       <c r="H242" s="11">
         <v>0</v>
       </c>
-      <c r="I242" s="11">
+      <c r="I242" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J242" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K242" s="11">
         <v>0</v>
-      </c>
-      <c r="J242" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K242" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="L242" s="11">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B243" s="8" t="s">
         <v>62</v>
       </c>
@@ -8729,14 +8729,14 @@
       <c r="H243" s="9">
         <v>0</v>
       </c>
-      <c r="I243" s="9">
+      <c r="I243" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J243" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K243" s="9">
         <v>0</v>
-      </c>
-      <c r="J243" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K243" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="L243" s="9">
         <v>0</v>
@@ -8748,155 +8748,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B244" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11">
-        <v>3751</v>
+        <v>-946</v>
       </c>
       <c r="F244" s="11">
-        <v>-946</v>
+        <v>6610</v>
       </c>
       <c r="G244" s="11">
-        <v>6610</v>
+        <v>3956</v>
       </c>
       <c r="H244" s="11">
-        <v>3956</v>
-      </c>
-      <c r="I244" s="11">
         <v>5456</v>
       </c>
+      <c r="I244" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="J244" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K244" s="11" t="s">
-        <v>15</v>
+      <c r="K244" s="11">
+        <v>1564</v>
       </c>
       <c r="L244" s="11">
-        <v>1564</v>
+        <v>29085</v>
       </c>
       <c r="M244" s="11">
-        <v>29085</v>
+        <v>16403</v>
       </c>
       <c r="N244" s="11">
-        <v>16403</v>
-      </c>
-    </row>
-    <row r="245" spans="2:14" x14ac:dyDescent="0.25">
+        <v>40836</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B245" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="9">
-        <v>383</v>
+        <v>1683</v>
       </c>
       <c r="F245" s="9">
-        <v>1683</v>
+        <v>-635</v>
       </c>
       <c r="G245" s="9">
-        <v>-635</v>
+        <v>1962</v>
       </c>
       <c r="H245" s="9">
-        <v>1962</v>
-      </c>
-      <c r="I245" s="9">
         <v>1073</v>
       </c>
+      <c r="I245" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J245" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K245" s="9" t="s">
-        <v>15</v>
+      <c r="K245" s="9">
+        <v>1203</v>
       </c>
       <c r="L245" s="9">
-        <v>1203</v>
+        <v>2650</v>
       </c>
       <c r="M245" s="9">
-        <v>2650</v>
+        <v>3061</v>
       </c>
       <c r="N245" s="9">
-        <v>3061</v>
-      </c>
-    </row>
-    <row r="246" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3868</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B246" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
       <c r="E246" s="11">
-        <v>5528</v>
+        <v>5151</v>
       </c>
       <c r="F246" s="11">
-        <v>5151</v>
+        <v>5136</v>
       </c>
       <c r="G246" s="11">
-        <v>5136</v>
+        <v>5058</v>
       </c>
       <c r="H246" s="11">
-        <v>5058</v>
-      </c>
-      <c r="I246" s="11">
         <v>16572</v>
       </c>
+      <c r="I246" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="J246" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="K246" s="11" t="s">
-        <v>15</v>
+      <c r="K246" s="11">
+        <v>1448</v>
       </c>
       <c r="L246" s="11">
-        <v>1448</v>
+        <v>56853</v>
       </c>
       <c r="M246" s="11">
-        <v>56853</v>
+        <v>44266</v>
       </c>
       <c r="N246" s="11">
-        <v>44266</v>
-      </c>
-    </row>
-    <row r="247" spans="2:14" x14ac:dyDescent="0.25">
+        <v>29942</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B247" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C247" s="9"/>
       <c r="D247" s="9"/>
       <c r="E247" s="9">
-        <v>6257</v>
+        <v>11368</v>
       </c>
       <c r="F247" s="9">
-        <v>11368</v>
+        <v>9308</v>
       </c>
       <c r="G247" s="9">
-        <v>9308</v>
+        <v>16499</v>
       </c>
       <c r="H247" s="9">
-        <v>16499</v>
-      </c>
-      <c r="I247" s="9">
         <v>9600</v>
       </c>
+      <c r="I247" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J247" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K247" s="9" t="s">
-        <v>15</v>
+      <c r="K247" s="9">
+        <v>44239</v>
       </c>
       <c r="L247" s="9">
-        <v>44239</v>
+        <v>-19333</v>
       </c>
       <c r="M247" s="9">
-        <v>-19333</v>
+        <v>62644</v>
       </c>
       <c r="N247" s="9">
-        <v>62644</v>
-      </c>
-    </row>
-    <row r="248" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57477</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B248" s="10" t="s">
         <v>67</v>
       </c>
@@ -8914,14 +8914,14 @@
       <c r="H248" s="11">
         <v>0</v>
       </c>
-      <c r="I248" s="11">
+      <c r="I248" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J248" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K248" s="11">
         <v>0</v>
-      </c>
-      <c r="J248" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K248" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="L248" s="11">
         <v>0</v>
@@ -8933,81 +8933,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B249" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C249" s="9"/>
       <c r="D249" s="9"/>
       <c r="E249" s="9">
-        <v>31508</v>
+        <v>44357</v>
       </c>
       <c r="F249" s="9">
-        <v>44357</v>
+        <v>36886</v>
       </c>
       <c r="G249" s="9">
-        <v>36886</v>
+        <v>59190</v>
       </c>
       <c r="H249" s="9">
-        <v>59190</v>
-      </c>
-      <c r="I249" s="9">
         <v>49134</v>
       </c>
+      <c r="I249" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="J249" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K249" s="9" t="s">
-        <v>15</v>
+      <c r="K249" s="9">
+        <v>74228</v>
       </c>
       <c r="L249" s="9">
-        <v>74228</v>
+        <v>119522</v>
       </c>
       <c r="M249" s="9">
-        <v>119522</v>
+        <v>54438</v>
       </c>
       <c r="N249" s="9">
-        <v>54438</v>
-      </c>
-    </row>
-    <row r="250" spans="2:14" x14ac:dyDescent="0.25">
+        <v>98597</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B250" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C250" s="13"/>
       <c r="D250" s="13"/>
       <c r="E250" s="13">
-        <v>47427</v>
+        <v>61613</v>
       </c>
       <c r="F250" s="13">
-        <v>61613</v>
+        <v>87514</v>
       </c>
       <c r="G250" s="13">
-        <v>87514</v>
+        <v>86665</v>
       </c>
       <c r="H250" s="13">
-        <v>86665</v>
+        <v>81835</v>
       </c>
       <c r="I250" s="13">
-        <v>81835</v>
+        <v>0</v>
       </c>
       <c r="J250" s="13">
         <v>0</v>
       </c>
       <c r="K250" s="13">
-        <v>0</v>
+        <v>145829</v>
       </c>
       <c r="L250" s="13">
-        <v>145829</v>
+        <v>217045</v>
       </c>
       <c r="M250" s="13">
-        <v>217045</v>
+        <v>249198</v>
       </c>
       <c r="N250" s="13">
-        <v>249198</v>
-      </c>
-    </row>
-    <row r="251" spans="2:14" x14ac:dyDescent="0.25">
+        <v>246206</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="D251" s="1"/>
@@ -9022,7 +9022,7 @@
       <c r="M251" s="1"/>
       <c r="N251" s="1"/>
     </row>
-    <row r="252" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="D252" s="1"/>
@@ -9037,7 +9037,7 @@
       <c r="M252" s="1"/>
       <c r="N252" s="1"/>
     </row>
-    <row r="253" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="D253" s="1"/>
@@ -9052,7 +9052,7 @@
       <c r="M253" s="1"/>
       <c r="N253" s="1"/>
     </row>
-    <row r="254" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B254" s="7" t="s">
         <v>69</v>
       </c>
@@ -9069,7 +9069,7 @@
       <c r="M254" s="1"/>
       <c r="N254" s="1"/>
     </row>
-    <row r="255" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="D255" s="1"/>
@@ -9084,7 +9084,7 @@
       <c r="M255" s="1"/>
       <c r="N255" s="1"/>
     </row>
-    <row r="256" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B256" s="8" t="s">
         <v>70</v>
       </c>
@@ -9103,7 +9103,7 @@
       <c r="M256" s="1"/>
       <c r="N256" s="1"/>
     </row>
-    <row r="257" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B257" s="10" t="s">
         <v>72</v>
       </c>
@@ -9122,7 +9122,7 @@
       <c r="M257" s="1"/>
       <c r="N257" s="1"/>
     </row>
-    <row r="258" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B258" s="8" t="s">
         <v>74</v>
       </c>
@@ -9141,7 +9141,7 @@
       <c r="M258" s="1"/>
       <c r="N258" s="1"/>
     </row>
-    <row r="259" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B259" s="10" t="s">
         <v>76</v>
       </c>
@@ -9160,7 +9160,7 @@
       <c r="M259" s="1"/>
       <c r="N259" s="1"/>
     </row>
-    <row r="260" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B260" s="8" t="s">
         <v>78</v>
       </c>
@@ -9179,7 +9179,7 @@
       <c r="M260" s="1"/>
       <c r="N260" s="1"/>
     </row>
-    <row r="261" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B261" s="10" t="s">
         <v>80</v>
       </c>
@@ -9198,7 +9198,7 @@
       <c r="M261" s="1"/>
       <c r="N261" s="1"/>
     </row>
-    <row r="262" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B262" s="8" t="s">
         <v>82</v>
       </c>
@@ -9209,7 +9209,7 @@
       <c r="E262" s="9"/>
       <c r="F262" s="9"/>
     </row>
-    <row r="263" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B263" s="10" t="s">
         <v>78</v>
       </c>
@@ -9220,7 +9220,7 @@
       <c r="E263" s="11"/>
       <c r="F263" s="11"/>
     </row>
-    <row r="264" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B264" s="8" t="s">
         <v>78</v>
       </c>
@@ -9231,7 +9231,7 @@
       <c r="E264" s="9"/>
       <c r="F264" s="9"/>
     </row>
-    <row r="265" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B265" s="10" t="s">
         <v>78</v>
       </c>
@@ -9242,7 +9242,7 @@
       <c r="E265" s="11"/>
       <c r="F265" s="11"/>
     </row>
-    <row r="266" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B266" s="8" t="s">
         <v>74</v>
       </c>
@@ -9253,7 +9253,7 @@
       <c r="E266" s="9"/>
       <c r="F266" s="9"/>
     </row>
-    <row r="267" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B267" s="10" t="s">
         <v>76</v>
       </c>
@@ -9264,7 +9264,7 @@
       <c r="E267" s="11"/>
       <c r="F267" s="11"/>
     </row>
-    <row r="268" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B268" s="8" t="s">
         <v>89</v>
       </c>
@@ -9275,7 +9275,7 @@
       <c r="E268" s="9"/>
       <c r="F268" s="9"/>
     </row>
-    <row r="269" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B269" s="10" t="s">
         <v>91</v>
       </c>
@@ -9286,7 +9286,7 @@
       <c r="E269" s="11"/>
       <c r="F269" s="11"/>
     </row>
-    <row r="270" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B270" s="8" t="s">
         <v>93</v>
       </c>
@@ -9297,7 +9297,7 @@
       <c r="E270" s="9"/>
       <c r="F270" s="9"/>
     </row>
-    <row r="271" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B271" s="10" t="s">
         <v>95</v>
       </c>
@@ -9308,7 +9308,7 @@
       <c r="E271" s="11"/>
       <c r="F271" s="11"/>
     </row>
-    <row r="272" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B272" s="8" t="s">
         <v>97</v>
       </c>
